--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="SEMANA   02   2022  " sheetId="2" r:id="rId2"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>SR. FELIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  02    DEL     10   AL  16    E N E R O        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
     <font>
       <b/>
       <i/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Script MT Bold"/>
-      <family val="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1282,9 +1285,6 @@
   </cellStyleXfs>
   <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1575,12 +1575,6 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1645,14 +1639,23 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2157,31 +2160,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.5703125" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2190,186 +2190,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="13"/>
-      <c r="Q5" s="14"/>
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="28">
         <v>500</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="29">
         <v>200</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="29">
         <v>100</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="29">
         <v>50</v>
       </c>
-      <c r="X6" s="30">
+      <c r="X6" s="29">
         <v>20</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="29">
         <v>10</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="29">
         <v>5</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AA6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>1</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>366.67</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>5</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
         <f>D7*E7+F7*D7-0.02</f>
         <v>1833.3300000000002</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
         <f>I7+H7+G7-L7-0.33</f>
         <v>1833.0000000000002</v>
       </c>
-      <c r="N7" s="42">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40">
-        <v>0</v>
-      </c>
-      <c r="P7" s="43">
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
         <f t="shared" ref="P7:P16" si="0">M7-O7</f>
         <v>1833.0000000000002</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="43" t="s">
         <v>19</v>
       </c>
       <c r="T7">
@@ -2398,60 +2398,60 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>41820</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="46">
         <v>460</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="47">
         <v>5</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
-        <v>0</v>
-      </c>
-      <c r="H8" s="50">
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
         <f>D8*E8+D8*F8</f>
         <v>2300</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="50">
         <v>168.38</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="51">
         <v>161.65</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="51">
         <v>49.65</v>
       </c>
-      <c r="L8" s="53">
-        <v>0</v>
-      </c>
-      <c r="M8" s="54">
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
         <f>H8-I8-J8-K8</f>
         <v>1920.3199999999997</v>
       </c>
-      <c r="N8" s="55">
-        <v>0</v>
-      </c>
-      <c r="O8" s="56">
-        <v>0</v>
-      </c>
-      <c r="P8" s="57">
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
         <f t="shared" si="0"/>
         <v>1920.3199999999997</v>
       </c>
-      <c r="Q8" s="58" t="s">
+      <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="59"/>
       <c r="T8">
         <v>3</v>
       </c>
@@ -2478,55 +2478,55 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>3</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="62">
         <v>433.34</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>6</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <v>1</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="65">
         <f>D9*F9</f>
         <v>433.34</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="49">
         <f>D9*E9+G9-0.04</f>
         <v>3033.34</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="54">
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
         <f>I9+H9-0.34</f>
         <v>3033</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="56">
-        <v>0</v>
-      </c>
-      <c r="P9" s="57">
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
         <f t="shared" si="0"/>
         <v>3033</v>
       </c>
-      <c r="Q9" s="71" t="s">
+      <c r="Q9" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="72"/>
-      <c r="S9" s="73"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
       <c r="T9">
         <v>4</v>
       </c>
@@ -2553,52 +2553,52 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>4</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75">
+      <c r="C10" s="73"/>
+      <c r="D10" s="74">
         <v>280</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <v>8.5</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="76">
-        <v>0</v>
-      </c>
-      <c r="H10" s="50">
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
         <f>D10*E10+D10*F10</f>
         <v>2380</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79">
-        <v>0</v>
-      </c>
-      <c r="M10" s="54">
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
         <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
         <v>2380</v>
       </c>
-      <c r="N10" s="80">
-        <v>0</v>
-      </c>
-      <c r="O10" s="81">
-        <v>0</v>
-      </c>
-      <c r="P10" s="82">
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
         <f t="shared" si="0"/>
         <v>2380</v>
       </c>
-      <c r="Q10" s="83" t="s">
+      <c r="Q10" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
       <c r="T10">
         <v>4</v>
       </c>
@@ -2625,56 +2625,56 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>5</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="62">
         <v>642.86</v>
       </c>
-      <c r="E11" s="65">
-        <v>0</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86">
-        <v>0</v>
-      </c>
-      <c r="H11" s="50">
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
         <f>D11*F11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="87">
-        <v>0</v>
-      </c>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89">
-        <v>0</v>
-      </c>
-      <c r="M11" s="54">
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="90">
-        <v>0</v>
-      </c>
-      <c r="O11" s="91">
-        <v>0</v>
-      </c>
-      <c r="P11" s="92">
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="93" t="s">
+      <c r="Q11" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
       <c r="T11">
         <v>0</v>
       </c>
@@ -2701,57 +2701,57 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>6</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="62">
         <v>357.14</v>
       </c>
-      <c r="E12" s="65">
-        <v>0</v>
-      </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66">
-        <v>0</v>
-      </c>
-      <c r="H12" s="50">
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
         <f>D12*0+D12*F12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="95">
-        <v>0</v>
-      </c>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97">
-        <v>0</v>
-      </c>
-      <c r="M12" s="54">
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="98">
-        <v>0</v>
-      </c>
-      <c r="O12" s="81">
-        <v>0</v>
-      </c>
-      <c r="P12" s="99">
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="100" t="s">
+      <c r="Q12" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="101"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="103">
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
         <v>0</v>
       </c>
       <c r="U12">
@@ -2777,342 +2777,342 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>5</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="103">
         <v>44242</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="104">
         <v>366.67</v>
       </c>
-      <c r="E13" s="106">
+      <c r="E13" s="105">
         <v>6</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50">
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49">
         <f>D13*E13-0.02</f>
         <v>2200</v>
       </c>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="108">
-        <v>0</v>
-      </c>
-      <c r="M13" s="54">
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
         <f>I13+H13+G13-L13</f>
         <v>2200</v>
       </c>
-      <c r="N13" s="109">
-        <v>0</v>
-      </c>
-      <c r="O13" s="110">
-        <v>0</v>
-      </c>
-      <c r="P13" s="99">
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
         <f>M13-O13</f>
         <v>2200</v>
       </c>
-      <c r="Q13" s="111" t="s">
+      <c r="Q13" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="R13" s="112"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="113">
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
         <v>3</v>
       </c>
-      <c r="U13" s="114">
+      <c r="U13" s="113">
         <v>2</v>
       </c>
-      <c r="V13" s="114">
+      <c r="V13" s="113">
         <v>2</v>
       </c>
-      <c r="W13" s="114">
-        <v>0</v>
-      </c>
-      <c r="X13" s="114">
+      <c r="W13" s="113">
+        <v>0</v>
+      </c>
+      <c r="X13" s="113">
         <v>5</v>
       </c>
-      <c r="Y13" s="114">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="114">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="114">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="115"/>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
     </row>
     <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>6</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="103">
         <v>44354</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="104">
         <v>416.67</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="47">
         <v>6</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="47">
         <v>3</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="48">
         <f>D14*F14</f>
         <v>1250.01</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="49">
         <f>D14*E14-0.02</f>
         <v>2500</v>
       </c>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="54">
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
         <f>I14+H14+G14-L14-0.01</f>
         <v>3750</v>
       </c>
-      <c r="N14" s="109">
-        <v>0</v>
-      </c>
-      <c r="O14" s="110">
-        <v>0</v>
-      </c>
-      <c r="P14" s="99">
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
         <f>M14-O14</f>
         <v>3750</v>
       </c>
-      <c r="Q14" s="111" t="s">
+      <c r="Q14" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="112"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="113">
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
         <v>5</v>
       </c>
-      <c r="U14" s="114">
+      <c r="U14" s="113">
         <v>4</v>
       </c>
-      <c r="V14" s="114">
+      <c r="V14" s="113">
         <v>2</v>
       </c>
-      <c r="W14" s="114">
+      <c r="W14" s="113">
         <v>3</v>
       </c>
-      <c r="X14" s="114">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="114">
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="113">
         <v>5</v>
       </c>
-      <c r="Z14" s="114">
+      <c r="Z14" s="113">
         <v>10</v>
       </c>
-      <c r="AA14" s="114">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="115"/>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
     </row>
     <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>7</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="103">
         <v>44354</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="104">
         <v>300</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="47">
         <v>6</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49">
-        <v>0</v>
-      </c>
-      <c r="H15" s="50">
+      <c r="F15" s="47"/>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
         <f>D15*E15</f>
         <v>1800</v>
       </c>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="119"/>
-      <c r="M15" s="54">
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
         <f>I15+H15+G15-L15</f>
         <v>1800</v>
       </c>
-      <c r="N15" s="109">
-        <v>0</v>
-      </c>
-      <c r="O15" s="110">
-        <v>0</v>
-      </c>
-      <c r="P15" s="99">
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
         <f>M15-O15</f>
         <v>1800</v>
       </c>
-      <c r="Q15" s="111" t="s">
+      <c r="Q15" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="112"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="113">
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
         <v>2</v>
       </c>
-      <c r="U15" s="114">
+      <c r="U15" s="113">
         <v>3</v>
       </c>
-      <c r="V15" s="114">
+      <c r="V15" s="113">
         <v>1</v>
       </c>
-      <c r="W15" s="114">
+      <c r="W15" s="113">
         <v>2</v>
       </c>
-      <c r="X15" s="114">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="114">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="114">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="114">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="115" t="s">
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="120"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="121">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123">
-        <v>0</v>
-      </c>
-      <c r="M16" s="124">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="125">
-        <v>0</v>
-      </c>
-      <c r="O16" s="126">
-        <v>0</v>
-      </c>
-      <c r="P16" s="82">
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="Q16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="S16" s="103"/>
-      <c r="T16" s="127">
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
         <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
         <v>23</v>
       </c>
-      <c r="U16" s="127">
+      <c r="U16" s="126">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="V16" s="127">
+      <c r="V16" s="126">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="W16" s="127">
+      <c r="W16" s="126">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="X16" s="127">
+      <c r="X16" s="126">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="Y16" s="127">
+      <c r="Y16" s="126">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Z16" s="127">
+      <c r="Z16" s="126">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AA16" s="127">
+      <c r="AA16" s="126">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="132" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="133">
+      <c r="H17" s="132">
         <f>SUM(H7:H16)</f>
         <v>16046.67</v>
       </c>
-      <c r="I17" s="134">
+      <c r="I17" s="133">
         <f>SUM(I7:I16)</f>
         <v>168.38</v>
       </c>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="135">
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
         <f>SUM(L7:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="136">
+      <c r="M17" s="135">
         <f>SUM(M7:M16)</f>
         <v>16916.32</v>
       </c>
-      <c r="N17" s="137">
+      <c r="N17" s="136">
         <f>SUM(N8:N16)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="138">
+      <c r="O17" s="137">
         <f>SUM(O8:O16)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="139">
+      <c r="P17" s="138">
         <f>SUM(P7:P16)</f>
         <v>16916.32</v>
       </c>
-      <c r="Q17" s="111"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
       <c r="Z17">
         <v>0</v>
       </c>
@@ -3121,121 +3121,121 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="140"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="M18" s="8"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
       <c r="P18">
         <v>1616</v>
       </c>
-      <c r="Q18" s="143"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="144">
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
         <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
         <v>11500</v>
       </c>
-      <c r="U18" s="144">
+      <c r="U18" s="143">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="V18" s="144">
+      <c r="V18" s="143">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="W18" s="145">
+      <c r="W18" s="144">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="X18" s="144">
+      <c r="X18" s="143">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="Y18" s="144">
+      <c r="Y18" s="143">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="Z18" s="144">
+      <c r="Z18" s="143">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="AA18" s="144">
+      <c r="AA18" s="143">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="AB18" s="146">
+      <c r="AB18" s="145">
         <f>SUM(T18:AA18)</f>
         <v>16916</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="P19" s="150"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="151"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="151"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
       <c r="AB19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="157">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="195">
         <f>M17+P19</f>
         <v>16916.32</v>
       </c>
-      <c r="Q20" s="157"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="158"/>
+      <c r="Q20" s="195"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
       <c r="W21" t="s">
         <v>0</v>
       </c>
@@ -3244,146 +3244,146 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="166">
+      <c r="C22" s="163">
         <v>5500</v>
       </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="169"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="170">
+      <c r="B23" s="167">
         <f>C22+C23</f>
         <v>5000</v>
       </c>
-      <c r="C23" s="171">
+      <c r="C23" s="168">
         <v>-500</v>
       </c>
-      <c r="D23" s="172">
+      <c r="D23" s="169">
         <v>44534</v>
       </c>
-      <c r="E23" s="173"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="174"/>
-      <c r="L23" s="175"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="170">
+      <c r="B24" s="167">
         <f>B23+C24</f>
         <v>4500</v>
       </c>
-      <c r="C24" s="176">
+      <c r="C24" s="173">
         <v>-500</v>
       </c>
-      <c r="D24" s="177">
+      <c r="D24" s="174">
         <v>44541</v>
       </c>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="170">
+      <c r="B25" s="167">
         <f t="shared" ref="B25:B33" si="4">B24+C25</f>
         <v>4000</v>
       </c>
-      <c r="C25" s="176">
+      <c r="C25" s="173">
         <v>-500</v>
       </c>
-      <c r="D25" s="178">
+      <c r="D25" s="175">
         <v>44548</v>
       </c>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="170">
+      <c r="B26" s="167">
         <f t="shared" si="4"/>
         <v>3500</v>
       </c>
-      <c r="C26" s="176">
+      <c r="C26" s="173">
         <v>-500</v>
       </c>
-      <c r="D26" s="178">
+      <c r="D26" s="175">
         <v>44554</v>
       </c>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="170">
+      <c r="B27" s="167">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="C27" s="176">
+      <c r="C27" s="173">
         <v>-500</v>
       </c>
-      <c r="D27" s="178">
+      <c r="D27" s="175">
         <v>44560</v>
       </c>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="170">
+      <c r="B28" s="167">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="C28" s="176">
+      <c r="C28" s="173">
         <v>-500</v>
       </c>
-      <c r="D28" s="178">
+      <c r="D28" s="175">
         <v>44204</v>
       </c>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="170">
+      <c r="B29" s="167">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="C29" s="176"/>
-      <c r="D29" s="178">
+      <c r="C29" s="173"/>
+      <c r="D29" s="175">
         <v>44211</v>
       </c>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="170">
+      <c r="B30" s="167">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="C30" s="176"/>
-      <c r="D30" s="178">
+      <c r="C30" s="173"/>
+      <c r="D30" s="175">
         <v>44218</v>
       </c>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="170">
+      <c r="B31" s="167">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="C31" s="176"/>
-      <c r="D31" s="178">
+      <c r="C31" s="173"/>
+      <c r="D31" s="175">
         <v>44225</v>
       </c>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="170">
+      <c r="B32" s="167">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="C32" s="176"/>
-      <c r="D32" s="178">
+      <c r="C32" s="173"/>
+      <c r="D32" s="175">
         <v>44232</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="170">
+      <c r="B33" s="167">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="C33" s="176"/>
-      <c r="D33" s="178">
+      <c r="C33" s="173"/>
+      <c r="D33" s="175">
         <v>44239</v>
       </c>
     </row>
@@ -3399,12 +3399,1242 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="193" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8</f>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="58"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="62">
+        <v>433.34</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="65">
+        <f>D9*F9</f>
+        <v>1083.3499999999999</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9+G9-0.04</f>
+        <v>3683.35</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9-0.35</f>
+        <v>3683</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>3683</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>8</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10+D10*F10</f>
+        <v>2240</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>2240</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="103">
+        <v>44242</v>
+      </c>
+      <c r="D13" s="104">
+        <v>366.67</v>
+      </c>
+      <c r="E13" s="105">
+        <v>6</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49">
+        <f>D13*E13-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>2200</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>2200</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>3</v>
+      </c>
+      <c r="U13" s="113">
+        <v>2</v>
+      </c>
+      <c r="V13" s="113">
+        <v>2</v>
+      </c>
+      <c r="W13" s="113">
+        <v>0</v>
+      </c>
+      <c r="X13" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>2500</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>2500</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>4</v>
+      </c>
+      <c r="U14" s="113">
+        <v>2</v>
+      </c>
+      <c r="V14" s="113">
+        <v>1</v>
+      </c>
+      <c r="W14" s="113">
+        <v>0</v>
+      </c>
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D15" s="104">
+        <v>300</v>
+      </c>
+      <c r="E15" s="47">
+        <v>6</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15</f>
+        <v>1800</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>1800</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>1800</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>2</v>
+      </c>
+      <c r="U15" s="113">
+        <v>3</v>
+      </c>
+      <c r="V15" s="113">
+        <v>1</v>
+      </c>
+      <c r="W15" s="113">
+        <v>2</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>23</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>17123.370000000003</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>16743.32</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>16743.32</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>11500</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>3400</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>16743</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="195">
+        <f>M17+P19</f>
+        <v>16743.32</v>
+      </c>
+      <c r="Q20" s="195"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="163">
+        <v>5500</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="167">
+        <f>C22+C23</f>
+        <v>5000</v>
+      </c>
+      <c r="C23" s="168">
+        <v>-500</v>
+      </c>
+      <c r="D23" s="169">
+        <v>44534</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="167">
+        <f>B23+C24</f>
+        <v>4500</v>
+      </c>
+      <c r="C24" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D24" s="174">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="167">
+        <f t="shared" ref="B25:B33" si="4">B24+C25</f>
+        <v>4000</v>
+      </c>
+      <c r="C25" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D25" s="175">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="167">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="C26" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D26" s="175">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="167">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="C27" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D27" s="175">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="167">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="C28" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D28" s="175">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C29" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D29" s="175">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C30" s="173"/>
+      <c r="D30" s="175">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C31" s="173"/>
+      <c r="D31" s="175">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C32" s="173"/>
+      <c r="D32" s="175">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C33" s="173"/>
+      <c r="D33" s="175">
+        <v>44239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3431,7 +4661,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,34 +4673,34 @@
   <sheetData>
     <row r="1" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="187" t="s">
+      <c r="F3" s="184" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="188"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190" t="s">
+    <row r="4" spans="2:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B4" s="185"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="187" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="191" t="s">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="188" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -3482,44 +4712,44 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="193" t="s">
+      <c r="F7" s="189" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F8" s="193" t="s">
+      <c r="F8" s="189" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="194"/>
-      <c r="F9" s="186" t="s">
+      <c r="B9" s="190"/>
+      <c r="F9" s="183" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="194"/>
+      <c r="B10" s="190"/>
     </row>
     <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="194"/>
-      <c r="F11" s="193" t="s">
+      <c r="B11" s="190"/>
+      <c r="F11" s="189" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="194"/>
+      <c r="B12" s="190"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="195"/>
+      <c r="B13" s="191"/>
     </row>
     <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="195"/>
+      <c r="B14" s="191"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="194"/>
+      <c r="B15" s="190"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="194"/>
+      <c r="B16" s="190"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3536,7 +4766,7 @@
   <dimension ref="C5:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,136 +4775,136 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D6" s="180">
+      <c r="D6" s="177">
         <v>500</v>
       </c>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="182">
+      <c r="F6" s="179">
         <v>23</v>
       </c>
-      <c r="G6" s="183">
+      <c r="G6" s="180">
         <f>F6*D6</f>
         <v>11500</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D7" s="180">
+      <c r="D7" s="177">
         <v>200</v>
       </c>
-      <c r="E7" s="181" t="s">
+      <c r="E7" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="182">
+      <c r="F7" s="179">
+        <v>17</v>
+      </c>
+      <c r="G7" s="180">
+        <f t="shared" ref="G7:G13" si="0">F7*D7</f>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D8" s="177">
+        <v>100</v>
+      </c>
+      <c r="E8" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="179">
+        <v>11</v>
+      </c>
+      <c r="G8" s="180">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D9" s="177">
+        <v>50</v>
+      </c>
+      <c r="E9" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="179">
+        <v>7</v>
+      </c>
+      <c r="G9" s="180">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D10" s="177">
         <v>20</v>
       </c>
-      <c r="G7" s="183">
-        <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D8" s="180">
-        <v>100</v>
-      </c>
-      <c r="E8" s="181" t="s">
+      <c r="E10" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="182">
-        <v>6</v>
-      </c>
-      <c r="G8" s="183">
+      <c r="F10" s="179">
+        <v>17</v>
+      </c>
+      <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D9" s="180">
-        <v>50</v>
-      </c>
-      <c r="E9" s="181" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D11" s="177">
+        <v>10</v>
+      </c>
+      <c r="E11" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="182">
-        <v>10</v>
-      </c>
-      <c r="G9" s="183">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D10" s="180">
-        <v>20</v>
-      </c>
-      <c r="E10" s="181" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="182">
-        <v>9</v>
-      </c>
-      <c r="G10" s="183">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D11" s="180">
-        <v>10</v>
-      </c>
-      <c r="E11" s="181" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="182">
-        <v>8</v>
-      </c>
-      <c r="G11" s="183">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D12" s="180">
+      <c r="F11" s="179">
         <v>5</v>
       </c>
-      <c r="E12" s="181" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="182">
-        <v>10</v>
-      </c>
-      <c r="G12" s="183">
+      <c r="G11" s="180">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
+    <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D12" s="177">
+        <v>5</v>
+      </c>
+      <c r="E12" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="179">
+        <v>0</v>
+      </c>
+      <c r="G12" s="180">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D13" s="180">
+      <c r="D13" s="177">
         <v>1</v>
       </c>
-      <c r="E13" s="181" t="s">
+      <c r="E13" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="182">
-        <v>6</v>
-      </c>
-      <c r="G13" s="183">
+      <c r="F13" s="179">
+        <v>3</v>
+      </c>
+      <c r="G13" s="180">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="184"/>
-      <c r="G14" s="185">
+      <c r="D14" s="181"/>
+      <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>16916</v>
+        <v>16743</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
     <sheet name="SEMANA   02   2022  " sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId5"/>
+    <sheet name="SEMANA   03    2022    " sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -154,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  02    DEL     10   AL  16    E N E R O        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  03    DEL     17   AL  23    E N E R O        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -3399,13 +3403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4641,11 +4642,1251 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="193" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8</f>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="58"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="62">
+        <v>433.34</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65">
+        <f>D9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9+G9-0.04</f>
+        <v>2600</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>2600</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>12</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10+D10*F10</f>
+        <v>3360</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>3360</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>3360</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="103">
+        <v>44242</v>
+      </c>
+      <c r="D13" s="104">
+        <v>366.67</v>
+      </c>
+      <c r="E13" s="105">
+        <v>6</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49">
+        <f>D13*E13-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>2200</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>2200</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>3</v>
+      </c>
+      <c r="U13" s="113">
+        <v>2</v>
+      </c>
+      <c r="V13" s="113">
+        <v>2</v>
+      </c>
+      <c r="W13" s="113">
+        <v>0</v>
+      </c>
+      <c r="X13" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>2500</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>2500</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>4</v>
+      </c>
+      <c r="U14" s="113">
+        <v>2</v>
+      </c>
+      <c r="V14" s="113">
+        <v>1</v>
+      </c>
+      <c r="W14" s="113">
+        <v>0</v>
+      </c>
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D15" s="104">
+        <v>300</v>
+      </c>
+      <c r="E15" s="47">
+        <v>6</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15</f>
+        <v>1800</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>1800</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>1800</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>2</v>
+      </c>
+      <c r="U15" s="113">
+        <v>3</v>
+      </c>
+      <c r="V15" s="113">
+        <v>1</v>
+      </c>
+      <c r="W15" s="113">
+        <v>2</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>24</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>17160.02</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>16780.32</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>16780.32</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>12000</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>16780</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="195">
+        <f>M17+P19</f>
+        <v>16780.32</v>
+      </c>
+      <c r="Q20" s="195"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="163">
+        <v>5500</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="167">
+        <f>C22+C23</f>
+        <v>5000</v>
+      </c>
+      <c r="C23" s="168">
+        <v>-500</v>
+      </c>
+      <c r="D23" s="169">
+        <v>44534</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="167">
+        <f>B23+C24</f>
+        <v>4500</v>
+      </c>
+      <c r="C24" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D24" s="174">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="167">
+        <f t="shared" ref="B25:B33" si="4">B24+C25</f>
+        <v>4000</v>
+      </c>
+      <c r="C25" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D25" s="175">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="167">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="C26" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D26" s="175">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="167">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="C27" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D27" s="175">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="167">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="C28" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D28" s="175">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C29" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D29" s="175">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="167">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="C30" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D30" s="175">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="167">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="C31" s="173"/>
+      <c r="D31" s="175">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="167">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="C32" s="173"/>
+      <c r="D32" s="175">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="167">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="C33" s="173"/>
+      <c r="D33" s="175">
+        <v>44239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -4653,15 +5894,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4758,15 +5999,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="C5:G19"/>
+  <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4788,11 +6029,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>11500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -4803,11 +6044,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>3400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -4818,11 +6059,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -4833,11 +6074,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -4848,11 +6089,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -4863,11 +6104,11 @@
         <v>37</v>
       </c>
       <c r="F11" s="179">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="180">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -4893,26 +6134,21 @@
         <v>37</v>
       </c>
       <c r="F13" s="179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="180">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>16743</v>
+        <v>16780</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
     <sheet name="SEMANA   02   2022  " sheetId="2" r:id="rId2"/>
     <sheet name="SEMANA   03    2022    " sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
+    <sheet name="SEMANA   04    2022     " sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="44">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -158,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  03    DEL     17   AL  23    E N E R O        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  04    DEL     24   AL  30    E N E R O        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -4642,13 +4646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,6 +5885,1252 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="193" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8</f>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="58"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="62">
+        <v>433.34</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64">
+        <v>2</v>
+      </c>
+      <c r="G9" s="65">
+        <f>D9*F9</f>
+        <v>866.68</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9+G9+0.28</f>
+        <v>3467</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>3467</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>3467</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>9.5</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10+D10*F10</f>
+        <v>2660</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>2660</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>2660</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="103">
+        <v>44242</v>
+      </c>
+      <c r="D13" s="104">
+        <v>366.67</v>
+      </c>
+      <c r="E13" s="105">
+        <v>5</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49">
+        <f>D13*E13-0.02</f>
+        <v>1833.3300000000002</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>1833.3300000000002</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>1833.3300000000002</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>3</v>
+      </c>
+      <c r="U13" s="113">
+        <v>1</v>
+      </c>
+      <c r="V13" s="113">
+        <v>1</v>
+      </c>
+      <c r="W13" s="113">
+        <v>0</v>
+      </c>
+      <c r="X13" s="113">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>2500</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>2500</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>4</v>
+      </c>
+      <c r="U14" s="113">
+        <v>2</v>
+      </c>
+      <c r="V14" s="113">
+        <v>1</v>
+      </c>
+      <c r="W14" s="113">
+        <v>0</v>
+      </c>
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D15" s="104">
+        <v>300</v>
+      </c>
+      <c r="E15" s="47">
+        <v>6</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15</f>
+        <v>1800</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>1800</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>1800</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>2</v>
+      </c>
+      <c r="U15" s="113">
+        <v>3</v>
+      </c>
+      <c r="V15" s="113">
+        <v>1</v>
+      </c>
+      <c r="W15" s="113">
+        <v>2</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>24</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>16960.349999999999</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>16580.650000000001</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>16580.650000000001</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>12000</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>16580</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="195">
+        <f>M17+P19</f>
+        <v>16580.650000000001</v>
+      </c>
+      <c r="Q20" s="195"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="163">
+        <v>5500</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="167">
+        <f>C22+C23</f>
+        <v>5000</v>
+      </c>
+      <c r="C23" s="168">
+        <v>-500</v>
+      </c>
+      <c r="D23" s="169">
+        <v>44534</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="167">
+        <f>B23+C24</f>
+        <v>4500</v>
+      </c>
+      <c r="C24" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D24" s="174">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="167">
+        <f t="shared" ref="B25:B33" si="4">B24+C25</f>
+        <v>4000</v>
+      </c>
+      <c r="C25" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D25" s="175">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="167">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="C26" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D26" s="175">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="167">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="C27" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D27" s="175">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="167">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="C28" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D28" s="175">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C29" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D29" s="175">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="167">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="C30" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D30" s="175">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C31" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D31" s="175">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C32" s="173"/>
+      <c r="D32" s="175">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C33" s="173"/>
+      <c r="D33" s="175">
+        <v>44239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5894,15 +7141,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,7 +7246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -6007,7 +7254,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,11 +7291,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -6074,11 +7321,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -6089,11 +7336,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -6104,11 +7351,11 @@
         <v>37</v>
       </c>
       <c r="F11" s="179">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -6119,11 +7366,11 @@
         <v>37</v>
       </c>
       <c r="F12" s="179">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G12" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -6134,18 +7381,18 @@
         <v>37</v>
       </c>
       <c r="F13" s="179">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>16780</v>
+        <v>16580</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
     <sheet name="SEMANA   02   2022  " sheetId="2" r:id="rId2"/>
     <sheet name="SEMANA   03    2022    " sheetId="4" r:id="rId3"/>
     <sheet name="SEMANA   04    2022     " sheetId="6" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="7" r:id="rId5"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId6"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId7"/>
+    <sheet name="SEMANA  05    2022      " sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="45">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -162,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  04    DEL     24   AL  30    E N E R O        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  05    DEL     31   AL  06  FEBRERO       2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1664,6 +1668,7 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1671,6 +1676,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5885,13 +5895,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7131,6 +7138,1254 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="193" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>2</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>283</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>1000</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8+G8+0.03</f>
+        <v>1000</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="196">
+        <v>-283</v>
+      </c>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="62">
+        <v>433.34</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65">
+        <f>D9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9+G9-0.04</f>
+        <v>2600</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>2600</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10+D10*F10</f>
+        <v>2380</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>2380</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>2380</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="103">
+        <v>44242</v>
+      </c>
+      <c r="D13" s="104">
+        <v>366.67</v>
+      </c>
+      <c r="E13" s="105">
+        <v>6</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49">
+        <f>D13*E13-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>2200</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>2200</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>4</v>
+      </c>
+      <c r="U13" s="113">
+        <v>0</v>
+      </c>
+      <c r="V13" s="113">
+        <v>1</v>
+      </c>
+      <c r="W13" s="113">
+        <v>2</v>
+      </c>
+      <c r="X13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47">
+        <v>3</v>
+      </c>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>1250.01</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>3750.01</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>3750.01</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>6</v>
+      </c>
+      <c r="U14" s="113">
+        <v>2</v>
+      </c>
+      <c r="V14" s="113">
+        <v>2</v>
+      </c>
+      <c r="W14" s="113">
+        <v>3</v>
+      </c>
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D15" s="104">
+        <v>300</v>
+      </c>
+      <c r="E15" s="47">
+        <v>6</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15</f>
+        <v>1800</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>1800</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>1800</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>2</v>
+      </c>
+      <c r="U15" s="113">
+        <v>3</v>
+      </c>
+      <c r="V15" s="113">
+        <v>1</v>
+      </c>
+      <c r="W15" s="113">
+        <v>2</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>22</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>14680.02</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>15930.01</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>15930.01</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>11000</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>15930</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="195">
+        <f>M17+P19</f>
+        <v>15930.01</v>
+      </c>
+      <c r="Q20" s="195"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="163">
+        <v>5500</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="167">
+        <f>C22+C23</f>
+        <v>5000</v>
+      </c>
+      <c r="C23" s="168">
+        <v>-500</v>
+      </c>
+      <c r="D23" s="169">
+        <v>44534</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="167">
+        <f>B23+C24</f>
+        <v>4500</v>
+      </c>
+      <c r="C24" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D24" s="174">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="167">
+        <f t="shared" ref="B25:B33" si="4">B24+C25</f>
+        <v>4000</v>
+      </c>
+      <c r="C25" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D25" s="175">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="167">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="C26" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D26" s="175">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="167">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="C27" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D27" s="175">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="167">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="C28" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D28" s="175">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C29" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D29" s="175">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="167">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="C30" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D30" s="175">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C31" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D31" s="175">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C32" s="173"/>
+      <c r="D32" s="175">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C33" s="173"/>
+      <c r="D33" s="175">
+        <v>44239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7141,15 +8396,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7246,7 +8501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -7254,7 +8509,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7276,11 +8531,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>12000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7291,11 +8546,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>3200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7306,11 +8561,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7321,11 +8576,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7336,11 +8591,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7351,11 +8606,11 @@
         <v>37</v>
       </c>
       <c r="F11" s="179">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11" s="180">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7366,11 +8621,11 @@
         <v>37</v>
       </c>
       <c r="F12" s="179">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G12" s="180">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7381,18 +8636,18 @@
         <v>37</v>
       </c>
       <c r="F13" s="179">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="180">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>16580</v>
+        <v>15930</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="SEMANA   03    2022    " sheetId="4" r:id="rId3"/>
     <sheet name="SEMANA   04    2022     " sheetId="6" r:id="rId4"/>
     <sheet name="SEMANA  05    2022      " sheetId="7" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId6"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId7"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId8"/>
+    <sheet name="SEMANA   06   2022   " sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId7"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId8"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="46">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -166,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  05    DEL     31   AL  06  FEBRERO       2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  06    DEL     07   AL  13  FEBRERO       2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1659,6 +1663,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1668,7 +1673,6 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2208,38 +2212,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -3225,13 +3229,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="195">
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="196">
         <f>M17+P19</f>
         <v>16916.32</v>
       </c>
-      <c r="Q20" s="195"/>
+      <c r="Q20" s="196"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -3447,38 +3451,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -4462,13 +4466,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="195">
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="196">
         <f>M17+P19</f>
         <v>16743.32</v>
       </c>
-      <c r="Q20" s="195"/>
+      <c r="Q20" s="196"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -4658,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4686,38 +4690,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -5699,13 +5703,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="195">
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="196">
         <f>M17+P19</f>
         <v>16780.32</v>
       </c>
-      <c r="Q20" s="195"/>
+      <c r="Q20" s="196"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -5897,7 +5901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -5925,38 +5929,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -6940,13 +6944,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="195">
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="196">
         <f>M17+P19</f>
         <v>16580.650000000001</v>
       </c>
-      <c r="Q20" s="195"/>
+      <c r="Q20" s="196"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -7138,13 +7142,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7171,38 +7172,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -7431,7 +7432,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="196">
+      <c r="R8" s="193">
         <v>-283</v>
       </c>
       <c r="S8" s="59"/>
@@ -8188,13 +8189,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="194"/>
-      <c r="P20" s="195">
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="196">
         <f>M17+P19</f>
         <v>15930.01</v>
       </c>
-      <c r="Q20" s="195"/>
+      <c r="Q20" s="196"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -8386,6 +8387,1254 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="194" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>-283</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8+G8</f>
+        <v>1837.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>1837.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="193">
+        <v>-283</v>
+      </c>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="62">
+        <v>433.34</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65">
+        <f>D9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9+G9-0.04</f>
+        <v>2600</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>2600</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10+D10*F10</f>
+        <v>2380</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>2380</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>2380</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="103">
+        <v>44242</v>
+      </c>
+      <c r="D13" s="104">
+        <v>366.67</v>
+      </c>
+      <c r="E13" s="105">
+        <v>6</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49">
+        <f>D13*E13-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>2200</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>2200</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>4</v>
+      </c>
+      <c r="U13" s="113">
+        <v>0</v>
+      </c>
+      <c r="V13" s="113">
+        <v>1</v>
+      </c>
+      <c r="W13" s="113">
+        <v>2</v>
+      </c>
+      <c r="X13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47">
+        <v>3</v>
+      </c>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>1250.01</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>3750.01</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>3750.01</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>6</v>
+      </c>
+      <c r="U14" s="113">
+        <v>2</v>
+      </c>
+      <c r="V14" s="113">
+        <v>2</v>
+      </c>
+      <c r="W14" s="113">
+        <v>3</v>
+      </c>
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D15" s="104">
+        <v>300</v>
+      </c>
+      <c r="E15" s="47">
+        <v>6</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15</f>
+        <v>1800</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>1800</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>1800</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>2</v>
+      </c>
+      <c r="U15" s="113">
+        <v>3</v>
+      </c>
+      <c r="V15" s="113">
+        <v>1</v>
+      </c>
+      <c r="W15" s="113">
+        <v>2</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>22</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>16180.02</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>16767.330000000002</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>16767.330000000002</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>11000</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>15930</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="195"/>
+      <c r="O20" s="195"/>
+      <c r="P20" s="196">
+        <f>M17+P19</f>
+        <v>16767.330000000002</v>
+      </c>
+      <c r="Q20" s="196"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="163">
+        <v>5500</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="167">
+        <f>C22+C23</f>
+        <v>5000</v>
+      </c>
+      <c r="C23" s="168">
+        <v>-500</v>
+      </c>
+      <c r="D23" s="169">
+        <v>44534</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="167">
+        <f>B23+C24</f>
+        <v>4500</v>
+      </c>
+      <c r="C24" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D24" s="174">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="167">
+        <f t="shared" ref="B25:B33" si="4">B24+C25</f>
+        <v>4000</v>
+      </c>
+      <c r="C25" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D25" s="175">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="167">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="C26" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D26" s="175">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="167">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="C27" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D27" s="175">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="167">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="C28" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D28" s="175">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C29" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D29" s="175">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="167">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="C30" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D30" s="175">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C31" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D31" s="175">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C32" s="173"/>
+      <c r="D32" s="175">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C33" s="173"/>
+      <c r="D33" s="175">
+        <v>44239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8396,15 +9645,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8501,7 +9750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1673,6 +1673,7 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8392,8 +8393,8 @@
   </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8680,15 +8681,13 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="193">
-        <v>-283</v>
-      </c>
+      <c r="R8" s="197"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -8697,16 +8696,16 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
@@ -8725,14 +8724,16 @@
       <c r="E9" s="63">
         <v>6</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="64">
+        <v>2</v>
+      </c>
       <c r="G9" s="65">
         <f>D9*F9</f>
-        <v>0</v>
+        <v>866.68</v>
       </c>
       <c r="H9" s="49">
-        <f>D9*E9+G9-0.04</f>
-        <v>2600</v>
+        <f>D9*E9+G9+0.28</f>
+        <v>3467</v>
       </c>
       <c r="I9" s="66"/>
       <c r="J9" s="67"/>
@@ -8740,7 +8741,7 @@
       <c r="L9" s="68"/>
       <c r="M9" s="53">
         <f>I9+H9</f>
-        <v>2600</v>
+        <v>3467</v>
       </c>
       <c r="N9" s="69" t="s">
         <v>24</v>
@@ -8750,7 +8751,7 @@
       </c>
       <c r="P9" s="56">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>3467</v>
       </c>
       <c r="Q9" s="70" t="s">
         <v>19</v>
@@ -8761,25 +8762,25 @@
         <v>4</v>
       </c>
       <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>3</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
@@ -8794,7 +8795,7 @@
         <v>280</v>
       </c>
       <c r="E10" s="47">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="75">
@@ -8802,7 +8803,7 @@
       </c>
       <c r="H10" s="49">
         <f>D10*E10+D10*F10</f>
-        <v>2380</v>
+        <v>1540</v>
       </c>
       <c r="I10" s="76"/>
       <c r="J10" s="77"/>
@@ -8812,7 +8813,7 @@
       </c>
       <c r="M10" s="53">
         <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
-        <v>2380</v>
+        <v>1540</v>
       </c>
       <c r="N10" s="79">
         <v>0</v>
@@ -8822,7 +8823,7 @@
       </c>
       <c r="P10" s="81">
         <f t="shared" si="0"/>
-        <v>2380</v>
+        <v>1540</v>
       </c>
       <c r="Q10" s="82" t="s">
         <v>19</v>
@@ -8830,10 +8831,10 @@
       <c r="R10" s="83"/>
       <c r="S10" s="83"/>
       <c r="T10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>2</v>
@@ -8842,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -9095,12 +9096,10 @@
       <c r="E14" s="47">
         <v>6</v>
       </c>
-      <c r="F14" s="47">
-        <v>3</v>
-      </c>
+      <c r="F14" s="47"/>
       <c r="G14" s="48">
         <f>D14*F14</f>
-        <v>1250.01</v>
+        <v>0</v>
       </c>
       <c r="H14" s="49">
         <f>D14*E14-0.02</f>
@@ -9112,7 +9111,7 @@
       <c r="L14" s="116"/>
       <c r="M14" s="53">
         <f>I14+H14+G14-L14</f>
-        <v>3750.01</v>
+        <v>2500</v>
       </c>
       <c r="N14" s="108">
         <v>0</v>
@@ -9122,7 +9121,7 @@
       </c>
       <c r="P14" s="98">
         <f>M14-O14</f>
-        <v>3750.01</v>
+        <v>2500</v>
       </c>
       <c r="Q14" s="110" t="s">
         <v>19</v>
@@ -9130,16 +9129,16 @@
       <c r="R14" s="111"/>
       <c r="S14" s="101"/>
       <c r="T14" s="112">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U14" s="113">
         <v>2</v>
       </c>
       <c r="V14" s="113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14" s="113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X14" s="113">
         <v>0</v>
@@ -9268,35 +9267,35 @@
       <c r="S16" s="102"/>
       <c r="T16" s="126">
         <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U16" s="126">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="V16" s="126">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W16" s="126">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X16" s="126">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y16" s="126">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="126">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="126">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9310,7 +9309,7 @@
       </c>
       <c r="H17" s="132">
         <f>SUM(H7:H16)</f>
-        <v>16180.02</v>
+        <v>16207.02</v>
       </c>
       <c r="I17" s="133">
         <f>SUM(I7:I16)</f>
@@ -9324,7 +9323,7 @@
       </c>
       <c r="M17" s="135">
         <f>SUM(M7:M16)</f>
-        <v>16767.330000000002</v>
+        <v>15544.32</v>
       </c>
       <c r="N17" s="136">
         <f>SUM(N8:N16)</f>
@@ -9336,7 +9335,7 @@
       </c>
       <c r="P17" s="138">
         <f>SUM(P7:P16)</f>
-        <v>16767.330000000002</v>
+        <v>15544.32</v>
       </c>
       <c r="Q17" s="110"/>
       <c r="S17" s="102"/>
@@ -9362,39 +9361,39 @@
       <c r="S18" s="102"/>
       <c r="T18" s="143">
         <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="U18" s="143">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="V18" s="143">
         <f t="shared" si="3"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="W18" s="144">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="X18" s="143">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Y18" s="143">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="143">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA18" s="143">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB18" s="145">
         <f>SUM(T18:AA18)</f>
-        <v>15930</v>
+        <v>15544</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -9441,7 +9440,7 @@
       <c r="O20" s="195"/>
       <c r="P20" s="196">
         <f>M17+P19</f>
-        <v>16767.330000000002</v>
+        <v>15544.32</v>
       </c>
       <c r="Q20" s="196"/>
       <c r="W20" s="10"/>
@@ -9606,9 +9605,11 @@
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="167">
         <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="C32" s="173"/>
+        <v>500</v>
+      </c>
+      <c r="C32" s="173">
+        <v>-500</v>
+      </c>
       <c r="D32" s="175">
         <v>44232</v>
       </c>
@@ -9616,9 +9617,11 @@
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="167">
         <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="C33" s="173"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="173">
+        <v>-500</v>
+      </c>
       <c r="D33" s="175">
         <v>44239</v>
       </c>
@@ -9653,7 +9656,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9758,7 +9761,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9780,11 +9783,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>11000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9795,11 +9798,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>3600</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9810,11 +9813,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9825,11 +9828,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9840,11 +9843,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9855,11 +9858,11 @@
         <v>37</v>
       </c>
       <c r="F11" s="179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9870,11 +9873,11 @@
         <v>37</v>
       </c>
       <c r="F12" s="179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9885,18 +9888,18 @@
         <v>37</v>
       </c>
       <c r="F13" s="179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>15930</v>
+        <v>15544</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="SEMANA   04    2022     " sheetId="6" r:id="rId4"/>
     <sheet name="SEMANA  05    2022      " sheetId="7" r:id="rId5"/>
     <sheet name="SEMANA   06   2022   " sheetId="8" r:id="rId6"/>
-    <sheet name="Hoja2" sheetId="9" r:id="rId7"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId8"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId9"/>
+    <sheet name="SEMANA   07    2022" sheetId="9" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId8"/>
+    <sheet name="Hoja4" sheetId="11" r:id="rId9"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId10"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="47">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -170,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  06    DEL     07   AL  13  FEBRERO       2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  07    DEL     14   AL  21    FEBRERO       2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1664,6 +1669,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1673,7 +1679,6 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1710,7 +1715,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1758,7 +1763,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2213,38 +2218,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -3230,13 +3235,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="196">
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="197">
         <f>M17+P19</f>
         <v>16916.32</v>
       </c>
-      <c r="Q20" s="196"/>
+      <c r="Q20" s="197"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -3416,6 +3421,266 @@
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="P20:Q20"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="183" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B4" s="185"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="192" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="189" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="189" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="190"/>
+      <c r="F9" s="183" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="190"/>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="190"/>
+      <c r="F11" s="189" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="190"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="191"/>
+    </row>
+    <row r="14" spans="2:6" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="191"/>
+      <c r="F14" s="188" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="190"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="190"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="D5:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+    </row>
+    <row r="6" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D6" s="177">
+        <v>500</v>
+      </c>
+      <c r="E6" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="179">
+        <v>21</v>
+      </c>
+      <c r="G6" s="180">
+        <f>F6*D6</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D7" s="177">
+        <v>200</v>
+      </c>
+      <c r="E7" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="179">
+        <v>10</v>
+      </c>
+      <c r="G7" s="180">
+        <f t="shared" ref="G7:G13" si="0">F7*D7</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D8" s="177">
+        <v>100</v>
+      </c>
+      <c r="E8" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="179">
+        <v>14</v>
+      </c>
+      <c r="G8" s="180">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D9" s="177">
+        <v>50</v>
+      </c>
+      <c r="E9" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="179">
+        <v>14</v>
+      </c>
+      <c r="G9" s="180">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D10" s="177">
+        <v>20</v>
+      </c>
+      <c r="E10" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="179">
+        <v>14</v>
+      </c>
+      <c r="G10" s="180">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D11" s="177">
+        <v>10</v>
+      </c>
+      <c r="E11" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="179">
+        <v>1</v>
+      </c>
+      <c r="G11" s="180">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D12" s="177">
+        <v>5</v>
+      </c>
+      <c r="E12" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="179">
+        <v>1</v>
+      </c>
+      <c r="G12" s="180">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D13" s="177">
+        <v>1</v>
+      </c>
+      <c r="E13" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="179">
+        <v>2</v>
+      </c>
+      <c r="G13" s="180">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="181"/>
+      <c r="G14" s="182">
+        <f>SUM(G6:G13)</f>
+        <v>14897</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3452,38 +3717,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -4467,13 +4732,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="196">
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="197">
         <f>M17+P19</f>
         <v>16743.32</v>
       </c>
-      <c r="Q20" s="196"/>
+      <c r="Q20" s="197"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -4691,38 +4956,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -5704,13 +5969,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="196">
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="197">
         <f>M17+P19</f>
         <v>16780.32</v>
       </c>
-      <c r="Q20" s="196"/>
+      <c r="Q20" s="197"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -5930,38 +6195,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -6945,13 +7210,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="196">
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="197">
         <f>M17+P19</f>
         <v>16580.650000000001</v>
       </c>
-      <c r="Q20" s="196"/>
+      <c r="Q20" s="197"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -7173,38 +7438,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -8190,13 +8455,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="196">
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="197">
         <f>M17+P19</f>
         <v>15930.01</v>
       </c>
-      <c r="Q20" s="196"/>
+      <c r="Q20" s="197"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -8388,13 +8653,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8421,38 +8683,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -8681,7 +8943,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="197"/>
+      <c r="R8" s="194"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>0</v>
@@ -9436,13 +9698,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="195"/>
-      <c r="P20" s="196">
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="197">
         <f>M17+P19</f>
         <v>15544.32</v>
       </c>
-      <c r="Q20" s="196"/>
+      <c r="Q20" s="197"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -9638,6 +9900,1257 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="195" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8+G8</f>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="194"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="62">
+        <v>433.34</v>
+      </c>
+      <c r="E9" s="63">
+        <v>2</v>
+      </c>
+      <c r="F9" s="64">
+        <v>0</v>
+      </c>
+      <c r="G9" s="65">
+        <f>D9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9+G9+0.28</f>
+        <v>866.95999999999992</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9+0.04</f>
+        <v>866.99999999999989</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>866.99999999999989</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1960</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>1960</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="103">
+        <v>44242</v>
+      </c>
+      <c r="D13" s="104">
+        <v>366.67</v>
+      </c>
+      <c r="E13" s="105">
+        <v>6</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49">
+        <f>D13*E13-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>2200</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>2200</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>4</v>
+      </c>
+      <c r="U13" s="113">
+        <v>0</v>
+      </c>
+      <c r="V13" s="113">
+        <v>1</v>
+      </c>
+      <c r="W13" s="113">
+        <v>2</v>
+      </c>
+      <c r="X13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47">
+        <v>3</v>
+      </c>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>1250.01</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>3750.01</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>3750.01</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>6</v>
+      </c>
+      <c r="U14" s="113">
+        <v>2</v>
+      </c>
+      <c r="V14" s="113">
+        <v>3</v>
+      </c>
+      <c r="W14" s="113">
+        <v>1</v>
+      </c>
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D15" s="104">
+        <v>300</v>
+      </c>
+      <c r="E15" s="47">
+        <v>6</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15</f>
+        <v>1800</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>1800</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>1800</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>2</v>
+      </c>
+      <c r="U15" s="113">
+        <v>3</v>
+      </c>
+      <c r="V15" s="113">
+        <v>1</v>
+      </c>
+      <c r="W15" s="113">
+        <v>2</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>21</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>14026.98</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>14897.33</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>14897.33</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>10500</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>14897</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="197">
+        <f>M17+P19</f>
+        <v>14897.33</v>
+      </c>
+      <c r="Q20" s="197"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="163">
+        <v>5500</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="167">
+        <f>C22+C23</f>
+        <v>5000</v>
+      </c>
+      <c r="C23" s="168">
+        <v>-500</v>
+      </c>
+      <c r="D23" s="169">
+        <v>44534</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="167">
+        <f>B23+C24</f>
+        <v>4500</v>
+      </c>
+      <c r="C24" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D24" s="174">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="167">
+        <f t="shared" ref="B25:B33" si="4">B24+C25</f>
+        <v>4000</v>
+      </c>
+      <c r="C25" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D25" s="175">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="167">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="C26" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D26" s="175">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="167">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="C27" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D27" s="175">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="167">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="C28" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D28" s="175">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C29" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D29" s="175">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="167">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="C30" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D30" s="175">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C31" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D31" s="175">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="167">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="C32" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D32" s="175">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D33" s="175">
+        <v>44239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9648,262 +11161,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="B1:F16"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="183" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="184" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="185"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="188" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="192" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="189" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F8" s="189" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="190"/>
-      <c r="F9" s="183" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="190"/>
-    </row>
-    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="190"/>
-      <c r="F11" s="189" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="190"/>
-    </row>
-    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="191"/>
-    </row>
-    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="191"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="190"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="190"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="D5:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-    </row>
-    <row r="6" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D6" s="177">
-        <v>500</v>
-      </c>
-      <c r="E6" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="179">
-        <v>18</v>
-      </c>
-      <c r="G6" s="180">
-        <f>F6*D6</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D7" s="177">
-        <v>200</v>
-      </c>
-      <c r="E7" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="179">
-        <v>25</v>
-      </c>
-      <c r="G7" s="180">
-        <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D8" s="177">
-        <v>100</v>
-      </c>
-      <c r="E8" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="179">
-        <v>11</v>
-      </c>
-      <c r="G8" s="180">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D9" s="177">
-        <v>50</v>
-      </c>
-      <c r="E9" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="179">
-        <v>6</v>
-      </c>
-      <c r="G9" s="180">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D10" s="177">
-        <v>20</v>
-      </c>
-      <c r="E10" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="179">
-        <v>6</v>
-      </c>
-      <c r="G10" s="180">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D11" s="177">
-        <v>10</v>
-      </c>
-      <c r="E11" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="179">
-        <v>1</v>
-      </c>
-      <c r="G11" s="180">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D12" s="177">
-        <v>5</v>
-      </c>
-      <c r="E12" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="179">
-        <v>2</v>
-      </c>
-      <c r="G12" s="180">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D13" s="177">
-        <v>1</v>
-      </c>
-      <c r="E13" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="179">
-        <v>4</v>
-      </c>
-      <c r="G13" s="180">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="181"/>
-      <c r="G14" s="182">
-        <f>SUM(G6:G13)</f>
-        <v>15544</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SEMANA  05    2022      " sheetId="7" r:id="rId5"/>
     <sheet name="SEMANA   06   2022   " sheetId="8" r:id="rId6"/>
     <sheet name="SEMANA   07    2022" sheetId="9" r:id="rId7"/>
-    <sheet name="Hoja1" sheetId="10" r:id="rId8"/>
+    <sheet name="SEMANA  08     2022     " sheetId="10" r:id="rId8"/>
     <sheet name="Hoja4" sheetId="11" r:id="rId9"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId10"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId11"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="48">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  07    DEL     14   AL  21    FEBRERO       2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  08    DEL     21   AL  27   FEBRERO       2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -3433,7 +3436,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,7 +3541,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,11 +3563,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>10500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3590,11 +3593,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3605,11 +3608,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3620,11 +3623,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3635,11 +3638,11 @@
         <v>37</v>
       </c>
       <c r="F11" s="179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="180">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3650,11 +3653,11 @@
         <v>37</v>
       </c>
       <c r="F12" s="179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="180">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3665,18 +3668,18 @@
         <v>37</v>
       </c>
       <c r="F13" s="179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="180">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>14897</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -9900,13 +9903,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11151,12 +11151,1255 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="195" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8+G8</f>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="194"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="62">
+        <v>433.34</v>
+      </c>
+      <c r="E9" s="63">
+        <v>0</v>
+      </c>
+      <c r="F9" s="64">
+        <v>0</v>
+      </c>
+      <c r="G9" s="65">
+        <f>D9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1540</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>1540</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>1540</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="103">
+        <v>44242</v>
+      </c>
+      <c r="D13" s="104">
+        <v>366.67</v>
+      </c>
+      <c r="E13" s="105">
+        <v>6</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49">
+        <f>D13*E13-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>2200</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>2200</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>4</v>
+      </c>
+      <c r="U13" s="113">
+        <v>0</v>
+      </c>
+      <c r="V13" s="113">
+        <v>1</v>
+      </c>
+      <c r="W13" s="113">
+        <v>2</v>
+      </c>
+      <c r="X13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>2500</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>2500</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>4</v>
+      </c>
+      <c r="U14" s="113">
+        <v>0</v>
+      </c>
+      <c r="V14" s="113">
+        <v>3</v>
+      </c>
+      <c r="W14" s="113">
+        <v>2</v>
+      </c>
+      <c r="X14" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D15" s="104">
+        <v>300</v>
+      </c>
+      <c r="E15" s="47">
+        <v>6</v>
+      </c>
+      <c r="F15" s="47">
+        <v>1</v>
+      </c>
+      <c r="G15" s="48">
+        <f>D15</f>
+        <v>300</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15</f>
+        <v>1800</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>2100</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>2100</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>2</v>
+      </c>
+      <c r="U15" s="113">
+        <v>5</v>
+      </c>
+      <c r="V15" s="113">
+        <v>0</v>
+      </c>
+      <c r="W15" s="113">
+        <v>2</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>18</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>12740.02</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>12660.32</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>12660.32</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>9000</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="197">
+        <f>M17+P19</f>
+        <v>12660.32</v>
+      </c>
+      <c r="Q20" s="197"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="163">
+        <v>5500</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="167">
+        <f>C22+C23</f>
+        <v>5000</v>
+      </c>
+      <c r="C23" s="168">
+        <v>-500</v>
+      </c>
+      <c r="D23" s="169">
+        <v>44534</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="167">
+        <f>B23+C24</f>
+        <v>4500</v>
+      </c>
+      <c r="C24" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D24" s="174">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="167">
+        <f t="shared" ref="B25:B33" si="4">B24+C25</f>
+        <v>4000</v>
+      </c>
+      <c r="C25" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D25" s="175">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="167">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="C26" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D26" s="175">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="167">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="C27" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D27" s="175">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="167">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="C28" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D28" s="175">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="167">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="C29" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D29" s="175">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="167">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="C30" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D30" s="175">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="167">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="C31" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D31" s="175">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="167">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="C32" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D32" s="175">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="167">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="173">
+        <v>-500</v>
+      </c>
+      <c r="D33" s="175">
+        <v>44239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="SEMANA   06   2022   " sheetId="8" r:id="rId6"/>
     <sheet name="SEMANA   07    2022" sheetId="9" r:id="rId7"/>
     <sheet name="SEMANA  08     2022     " sheetId="10" r:id="rId8"/>
-    <sheet name="Hoja4" sheetId="11" r:id="rId9"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId10"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId11"/>
+    <sheet name="SEMANA  09    2022     " sheetId="11" r:id="rId9"/>
+    <sheet name="Hoja1" sheetId="12" r:id="rId10"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId11"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -178,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  08    DEL     21   AL  27   FEBRERO       2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  09    DEL     28   AL  06  MARZO       2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1681,6 +1685,36 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3430,6 +3464,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3533,7 +3579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -3541,7 +3587,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,11 +3609,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>9000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3578,11 +3624,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>2000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3593,11 +3639,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3608,11 +3654,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3623,11 +3669,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3679,7 +3725,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>12660</v>
+        <v>13190</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -11151,16 +11197,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12215,11 +12258,9 @@
       <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="156" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="199"/>
       <c r="E21" s="158"/>
       <c r="F21" s="159"/>
       <c r="G21" s="152"/>
@@ -12241,10 +12282,9 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="163">
-        <v>5500</v>
-      </c>
-      <c r="D22" s="151"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
       <c r="E22" s="152"/>
       <c r="F22" s="152"/>
       <c r="G22" s="152"/>
@@ -12256,16 +12296,9 @@
       <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="167">
-        <f>C22+C23</f>
-        <v>5000</v>
-      </c>
-      <c r="C23" s="168">
-        <v>-500</v>
-      </c>
-      <c r="D23" s="169">
-        <v>44534</v>
-      </c>
+      <c r="B23" s="203"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="204"/>
       <c r="E23" s="170"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -12275,124 +12308,54 @@
       <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="167">
-        <f>B23+C24</f>
-        <v>4500</v>
-      </c>
-      <c r="C24" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D24" s="174">
-        <v>44541</v>
-      </c>
+      <c r="B24" s="203"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="174"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="167">
-        <f t="shared" ref="B25:B33" si="4">B24+C25</f>
-        <v>4000</v>
-      </c>
-      <c r="C25" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D25" s="175">
-        <v>44548</v>
-      </c>
+      <c r="B25" s="203"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="206"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="167">
-        <f t="shared" si="4"/>
-        <v>3500</v>
-      </c>
-      <c r="C26" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D26" s="175">
-        <v>44554</v>
-      </c>
+      <c r="B26" s="203"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="206"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="167">
-        <f t="shared" si="4"/>
-        <v>3000</v>
-      </c>
-      <c r="C27" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D27" s="175">
-        <v>44560</v>
-      </c>
+      <c r="B27" s="203"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="167">
-        <f t="shared" si="4"/>
-        <v>2500</v>
-      </c>
-      <c r="C28" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D28" s="175">
-        <v>44204</v>
-      </c>
+      <c r="B28" s="203"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="206"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="167">
-        <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="C29" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D29" s="175">
-        <v>44211</v>
-      </c>
+      <c r="B29" s="203"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="206"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="167">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="C30" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D30" s="175">
-        <v>44218</v>
-      </c>
+      <c r="B30" s="203"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="206"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="167">
-        <f t="shared" si="4"/>
-        <v>1000</v>
-      </c>
-      <c r="C31" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D31" s="175">
-        <v>44225</v>
-      </c>
+      <c r="B31" s="203"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="167">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="C32" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D32" s="175">
-        <v>44232</v>
-      </c>
+      <c r="B32" s="203"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="167">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="173">
-        <v>-500</v>
-      </c>
-      <c r="D33" s="175">
-        <v>44239</v>
-      </c>
+      <c r="B33" s="203"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12406,12 +12369,1168 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="195" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8+G8</f>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="194"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="207">
+        <v>44242</v>
+      </c>
+      <c r="D9" s="211">
+        <v>366.67</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="49">
+        <f>D9*E9-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>2200</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="209">
+        <v>44354</v>
+      </c>
+      <c r="D10" s="104">
+        <v>300</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10</f>
+        <v>1800</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>1800</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="208"/>
+      <c r="D13" s="74">
+        <v>280</v>
+      </c>
+      <c r="E13" s="47">
+        <v>4</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="75">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <v>1120</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>1120</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>1120</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>2</v>
+      </c>
+      <c r="U13" s="113">
+        <v>0</v>
+      </c>
+      <c r="V13" s="113">
+        <v>1</v>
+      </c>
+      <c r="W13" s="113">
+        <v>0</v>
+      </c>
+      <c r="X13" s="113">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47">
+        <v>3</v>
+      </c>
+      <c r="G14" s="48">
+        <f>D14*F14-0.01</f>
+        <v>1250</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>3750</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>3750</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>5</v>
+      </c>
+      <c r="U14" s="113">
+        <v>5</v>
+      </c>
+      <c r="V14" s="113">
+        <v>1</v>
+      </c>
+      <c r="W14" s="113">
+        <v>1</v>
+      </c>
+      <c r="X14" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="105">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <f>D15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>0</v>
+      </c>
+      <c r="U15" s="113">
+        <v>0</v>
+      </c>
+      <c r="V15" s="113">
+        <v>0</v>
+      </c>
+      <c r="W15" s="113">
+        <v>0</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>17</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>12320.02</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>13190.32</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>13190.32</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>8500</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>13190</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="196"/>
+      <c r="O20" s="196"/>
+      <c r="P20" s="197">
+        <f>M17+P19</f>
+        <v>13190.32</v>
+      </c>
+      <c r="Q20" s="197"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="198"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="200"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="203"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="203"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="174"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="203"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="206"/>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="203"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="206"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="203"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="203"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="206"/>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="203"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="206"/>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="203"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="206"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="203"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="203"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="203"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="206"/>
+    </row>
+  </sheetData>
+  <sortState ref="B9:H15">
+    <sortCondition ref="B9:B15"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="SEMANA   07    2022" sheetId="9" r:id="rId7"/>
     <sheet name="SEMANA  08     2022     " sheetId="10" r:id="rId8"/>
     <sheet name="SEMANA  09    2022     " sheetId="11" r:id="rId9"/>
-    <sheet name="Hoja1" sheetId="12" r:id="rId10"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId11"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId12"/>
+    <sheet name="SEMANA   10    2022   " sheetId="12" r:id="rId10"/>
+    <sheet name="Hoja2" sheetId="13" r:id="rId11"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId12"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="50">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -182,6 +183,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  09    DEL     28   AL  06  MARZO       2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  10    DEL     07   AL  13   MARZO       2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1677,15 +1681,6 @@
     </xf>
     <xf numFmtId="8" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1715,6 +1710,15 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2255,38 +2259,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -3272,13 +3276,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="197">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>16916.32</v>
       </c>
-      <c r="Q20" s="197"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -3464,9 +3468,1176 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="209" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8+G8</f>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="194"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="204">
+        <v>44242</v>
+      </c>
+      <c r="D9" s="208">
+        <v>366.67</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="49">
+        <f>D9*E9-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>2200</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="206">
+        <v>44354</v>
+      </c>
+      <c r="D10" s="104">
+        <v>300</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10</f>
+        <v>1800</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>1800</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="205"/>
+      <c r="D13" s="74">
+        <v>280</v>
+      </c>
+      <c r="E13" s="47">
+        <v>8</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="75">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <v>2240</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>2240</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>2240</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>2</v>
+      </c>
+      <c r="U13" s="113">
+        <v>5</v>
+      </c>
+      <c r="V13" s="113">
+        <v>2</v>
+      </c>
+      <c r="W13" s="113">
+        <v>0</v>
+      </c>
+      <c r="X13" s="113">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>2500</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>2500</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>4</v>
+      </c>
+      <c r="U14" s="113">
+        <v>2</v>
+      </c>
+      <c r="V14" s="113">
+        <v>1</v>
+      </c>
+      <c r="W14" s="113">
+        <v>0</v>
+      </c>
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="105">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <f>D15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>0</v>
+      </c>
+      <c r="U15" s="113">
+        <v>0</v>
+      </c>
+      <c r="V15" s="113">
+        <v>0</v>
+      </c>
+      <c r="W15" s="113">
+        <v>0</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>16</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>13440.02</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>13060.32</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>13060.32</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>8000</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>13060</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
+        <f>M17+P19</f>
+        <v>13060.32</v>
+      </c>
+      <c r="Q20" s="211"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="195"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="197"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="200"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="174"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="200"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="200"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="200"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3474,15 +4645,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,7 +4750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -3587,7 +4758,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,11 +4780,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>8500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3624,11 +4795,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>3600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3639,11 +4810,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3654,11 +4825,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3669,11 +4840,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -3725,7 +4896,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>13190</v>
+        <v>13060</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3766,38 +4937,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -4781,13 +5952,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="197">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>16743.32</v>
       </c>
-      <c r="Q20" s="197"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -5005,38 +6176,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="209" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -6018,13 +7189,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="197">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>16780.32</v>
       </c>
-      <c r="Q20" s="197"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -6244,38 +7415,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -7259,13 +8430,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="197">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>16580.650000000001</v>
       </c>
-      <c r="Q20" s="197"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -7487,38 +8658,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -8504,13 +9675,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="197">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>15930.01</v>
       </c>
-      <c r="Q20" s="197"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -8732,38 +9903,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -9747,13 +10918,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="197">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>15544.32</v>
       </c>
-      <c r="Q20" s="197"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -9979,38 +11150,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -10995,13 +12166,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="197">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>14897.33</v>
       </c>
-      <c r="Q20" s="197"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -11230,38 +12401,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -12247,20 +13418,20 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="197">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>12660.32</v>
       </c>
-      <c r="Q20" s="197"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="198"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="199"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
       <c r="E21" s="158"/>
       <c r="F21" s="159"/>
       <c r="G21" s="152"/>
@@ -12282,9 +13453,9 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="200"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
       <c r="E22" s="152"/>
       <c r="F22" s="152"/>
       <c r="G22" s="152"/>
@@ -12296,9 +13467,9 @@
       <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="203"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="204"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="170"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -12308,54 +13479,54 @@
       <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="203"/>
-      <c r="C24" s="205"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
       <c r="D24" s="174"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="203"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="203"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="203"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="203"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="203"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="203"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="203"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="203"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="203"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="206"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12369,13 +13540,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12402,38 +13570,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -12696,10 +13864,10 @@
       <c r="B9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="207">
+      <c r="C9" s="204">
         <v>44242</v>
       </c>
-      <c r="D9" s="211">
+      <c r="D9" s="208">
         <v>366.67</v>
       </c>
       <c r="E9" s="63">
@@ -12766,7 +13934,7 @@
       <c r="B10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="209">
+      <c r="C10" s="206">
         <v>44354</v>
       </c>
       <c r="D10" s="104">
@@ -12992,7 +14160,7 @@
       <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="208"/>
+      <c r="C13" s="205"/>
       <c r="D13" s="74">
         <v>280</v>
       </c>
@@ -13138,7 +14306,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="60"/>
-      <c r="C15" s="210"/>
+      <c r="C15" s="207"/>
       <c r="D15" s="74"/>
       <c r="E15" s="105">
         <v>0</v>
@@ -13412,20 +14580,20 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196"/>
-      <c r="P20" s="197">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>13190.32</v>
       </c>
-      <c r="Q20" s="197"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="198"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="199"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
       <c r="E21" s="158"/>
       <c r="F21" s="159"/>
       <c r="G21" s="152"/>
@@ -13447,9 +14615,9 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="200"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
       <c r="E22" s="152"/>
       <c r="F22" s="152"/>
       <c r="G22" s="152"/>
@@ -13461,9 +14629,9 @@
       <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="203"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="204"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="170"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -13473,54 +14641,54 @@
       <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="203"/>
-      <c r="C24" s="205"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
       <c r="D24" s="174"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="203"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="203"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="203"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="203"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="203"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="203"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="203"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="203"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="203"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="206"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
     </row>
   </sheetData>
   <sortState ref="B9:H15">

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="SEMANA  08     2022     " sheetId="10" r:id="rId8"/>
     <sheet name="SEMANA  09    2022     " sheetId="11" r:id="rId9"/>
     <sheet name="SEMANA   10    2022   " sheetId="12" r:id="rId10"/>
-    <sheet name="Hoja2" sheetId="13" r:id="rId11"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId12"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId13"/>
+    <sheet name="SEMANA   11     2022   " sheetId="13" r:id="rId11"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId12"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId13"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="51">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -186,6 +187,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  10    DEL     07   AL  13   MARZO       2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  11    DEL     14   AL  20   MARZO       2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -3468,13 +3472,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4633,11 +4634,1174 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="209" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8+G8</f>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="194"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="204">
+        <v>44242</v>
+      </c>
+      <c r="D9" s="208">
+        <v>366.67</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="49">
+        <f>D9*E9-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>2200</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="206">
+        <v>44354</v>
+      </c>
+      <c r="D10" s="104">
+        <v>300</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10</f>
+        <v>1800</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>1800</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="205"/>
+      <c r="D13" s="74">
+        <v>280</v>
+      </c>
+      <c r="E13" s="47">
+        <v>8</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="75">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <v>2240</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>2240</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>2240</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>2</v>
+      </c>
+      <c r="U13" s="113">
+        <v>5</v>
+      </c>
+      <c r="V13" s="113">
+        <v>2</v>
+      </c>
+      <c r="W13" s="113">
+        <v>0</v>
+      </c>
+      <c r="X13" s="113">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47">
+        <v>3</v>
+      </c>
+      <c r="G14" s="48">
+        <f>D14*F14-0.01</f>
+        <v>1250</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>3750</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>3750</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>6</v>
+      </c>
+      <c r="U14" s="113">
+        <v>2</v>
+      </c>
+      <c r="V14" s="113">
+        <v>1</v>
+      </c>
+      <c r="W14" s="113">
+        <v>3</v>
+      </c>
+      <c r="X14" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="105">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <f>D15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>0</v>
+      </c>
+      <c r="U15" s="113">
+        <v>0</v>
+      </c>
+      <c r="V15" s="113">
+        <v>0</v>
+      </c>
+      <c r="W15" s="113">
+        <v>0</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>18</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>13440.02</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>14310.32</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>14310.32</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>9000</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>14310</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
+        <f>M17+P19</f>
+        <v>14310.32</v>
+      </c>
+      <c r="Q20" s="211"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="195"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="197"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="200"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="174"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="200"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="200"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="200"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -4645,15 +5809,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,15 +5914,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="D5:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,11 +5944,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -4825,11 +5989,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -4840,11 +6004,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -4896,7 +6060,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>13060</v>
+        <v>14310</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="SEMANA  09    2022     " sheetId="11" r:id="rId9"/>
     <sheet name="SEMANA   10    2022   " sheetId="12" r:id="rId10"/>
     <sheet name="SEMANA   11     2022   " sheetId="13" r:id="rId11"/>
-    <sheet name="Hoja1" sheetId="14" r:id="rId12"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId13"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId14"/>
+    <sheet name="SEMANA   12     2022    " sheetId="14" r:id="rId12"/>
+    <sheet name="Hoja2" sheetId="15" r:id="rId13"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId14"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -190,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  11    DEL     14   AL  20   MARZO       2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  12    DEL     21   AL  27   MARZO       2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -4634,13 +4638,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5799,6 +5800,1169 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="209" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>500</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8+G8</f>
+        <v>2620.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2620.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="194"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="204">
+        <v>44242</v>
+      </c>
+      <c r="D9" s="208">
+        <v>366.67</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="49">
+        <f>D9*E9-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>2200</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="206">
+        <v>44354</v>
+      </c>
+      <c r="D10" s="104">
+        <v>300</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10</f>
+        <v>1800</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>1800</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="205"/>
+      <c r="D13" s="74">
+        <v>280</v>
+      </c>
+      <c r="E13" s="47">
+        <v>4</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="75">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <v>1120</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>1120</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>1120</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>2</v>
+      </c>
+      <c r="U13" s="113">
+        <v>0</v>
+      </c>
+      <c r="V13" s="113">
+        <v>1</v>
+      </c>
+      <c r="W13" s="113">
+        <v>0</v>
+      </c>
+      <c r="X13" s="113">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14</f>
+        <v>2500</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>2500</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>3</v>
+      </c>
+      <c r="U14" s="113">
+        <v>1</v>
+      </c>
+      <c r="V14" s="113">
+        <v>4</v>
+      </c>
+      <c r="W14" s="113">
+        <v>6</v>
+      </c>
+      <c r="X14" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="105">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <f>D15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>0</v>
+      </c>
+      <c r="U15" s="113">
+        <v>0</v>
+      </c>
+      <c r="V15" s="113">
+        <v>0</v>
+      </c>
+      <c r="W15" s="113">
+        <v>0</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>15</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>12320.02</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>12440.32</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>12440.32</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>7500</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>12440</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
+        <f>M17+P19</f>
+        <v>12440.32</v>
+      </c>
+      <c r="Q20" s="211"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="195"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="197"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="200"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="174"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="200"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="200"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="200"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5809,15 +6973,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5914,7 +7078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -5922,7 +7086,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5944,11 +7108,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>9000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -5959,11 +7123,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>4000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -5974,11 +7138,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -5989,11 +7153,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -6004,11 +7168,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -6060,7 +7224,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>14310</v>
+        <v>12440</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="SEMANA   10    2022   " sheetId="12" r:id="rId10"/>
     <sheet name="SEMANA   11     2022   " sheetId="13" r:id="rId11"/>
     <sheet name="SEMANA   12     2022    " sheetId="14" r:id="rId12"/>
-    <sheet name="Hoja2" sheetId="15" r:id="rId13"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId14"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId15"/>
+    <sheet name="SEMANA 13   2022       " sheetId="15" r:id="rId13"/>
+    <sheet name="Hoja1" sheetId="16" r:id="rId14"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId15"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -194,6 +195,12 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  12    DEL     21   AL  27   MARZO       2 0 2 2 </t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  13    DEL     28   AL  03       A B R I L        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1728,6 +1735,7 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5800,13 +5808,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6963,6 +6968,1173 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="209" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P16" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="212" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="45">
+        <v>41820</v>
+      </c>
+      <c r="D8" s="46">
+        <v>500</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <f>D8*E8+D8*F8</f>
+        <v>2500</v>
+      </c>
+      <c r="I8" s="50">
+        <v>168.38</v>
+      </c>
+      <c r="J8" s="51">
+        <v>161.65</v>
+      </c>
+      <c r="K8" s="51">
+        <v>49.65</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <f>H8-I8-J8-K8+G8</f>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="N8" s="54">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2120.3199999999997</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="194"/>
+      <c r="S8" s="59"/>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="204">
+        <v>44242</v>
+      </c>
+      <c r="D9" s="208">
+        <v>366.67</v>
+      </c>
+      <c r="E9" s="63">
+        <v>6</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="49">
+        <f>D9*E9-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="53">
+        <f>I9+H9</f>
+        <v>2200</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="206">
+        <v>44354</v>
+      </c>
+      <c r="D10" s="104">
+        <v>300</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <f>D10*E10</f>
+        <v>1800</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" ref="M10:M16" si="1">I10+H10+G10-L10</f>
+        <v>1800</v>
+      </c>
+      <c r="N10" s="79">
+        <v>0</v>
+      </c>
+      <c r="O10" s="80">
+        <v>0</v>
+      </c>
+      <c r="P10" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="62">
+        <v>642.86</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="89">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <v>0</v>
+      </c>
+      <c r="P11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>6</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="62">
+        <v>357.14</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*0+D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96">
+        <v>0</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="97">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="205"/>
+      <c r="D13" s="74">
+        <v>280</v>
+      </c>
+      <c r="E13" s="47">
+        <v>6</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="75">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <v>1680</v>
+      </c>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="53">
+        <f>I13+H13+G13-L13</f>
+        <v>1680</v>
+      </c>
+      <c r="N13" s="108">
+        <v>0</v>
+      </c>
+      <c r="O13" s="109">
+        <v>0</v>
+      </c>
+      <c r="P13" s="98">
+        <f>M13-O13</f>
+        <v>1680</v>
+      </c>
+      <c r="Q13" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="112">
+        <v>2</v>
+      </c>
+      <c r="U13" s="113">
+        <v>2</v>
+      </c>
+      <c r="V13" s="113">
+        <v>0</v>
+      </c>
+      <c r="W13" s="113">
+        <v>4</v>
+      </c>
+      <c r="X13" s="113">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="114"/>
+    </row>
+    <row r="14" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>6</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D14" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>6</v>
+      </c>
+      <c r="F14" s="47">
+        <v>3</v>
+      </c>
+      <c r="G14" s="48">
+        <f>D14*F14</f>
+        <v>1250.01</v>
+      </c>
+      <c r="H14" s="49">
+        <f>D14*E14-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="53">
+        <f>I14+H14+G14-L14-0.01</f>
+        <v>3750</v>
+      </c>
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="109">
+        <v>0</v>
+      </c>
+      <c r="P14" s="98">
+        <f>M14-O14</f>
+        <v>3750</v>
+      </c>
+      <c r="Q14" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="112">
+        <v>4</v>
+      </c>
+      <c r="U14" s="113">
+        <v>6</v>
+      </c>
+      <c r="V14" s="113">
+        <v>2</v>
+      </c>
+      <c r="W14" s="113">
+        <v>7</v>
+      </c>
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="114"/>
+    </row>
+    <row r="15" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="105">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <f>D15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <f>D15*E15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="53">
+        <f>I15+H15+G15-L15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="108">
+        <v>0</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0</v>
+      </c>
+      <c r="P15" s="98">
+        <f>M15-O15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="112">
+        <v>0</v>
+      </c>
+      <c r="U15" s="113">
+        <v>0</v>
+      </c>
+      <c r="V15" s="113">
+        <v>0</v>
+      </c>
+      <c r="W15" s="113">
+        <v>0</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="119"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="120">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122">
+        <v>0</v>
+      </c>
+      <c r="M16" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="124">
+        <v>0</v>
+      </c>
+      <c r="O16" s="125">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="102"/>
+      <c r="T16" s="126">
+        <f t="shared" ref="T16:AA16" si="2">SUM(T7:T15)</f>
+        <v>14</v>
+      </c>
+      <c r="U16" s="126">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="V16" s="126">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="W16" s="126">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X16" s="126">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Y16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H7:H16)</f>
+        <v>12880.02</v>
+      </c>
+      <c r="I17" s="133">
+        <f>SUM(I7:I16)</f>
+        <v>168.38</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="134">
+        <f>SUM(L7:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="135">
+        <f>SUM(M7:M16)</f>
+        <v>13750.32</v>
+      </c>
+      <c r="N17" s="136">
+        <f>SUM(N8:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="137">
+        <f>SUM(O8:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="138">
+        <f>SUM(P7:P16)</f>
+        <v>13750.32</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="139"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="M18" s="7"/>
+      <c r="P18">
+        <v>1616</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="143">
+        <f t="shared" ref="T18:AA18" si="3">T16*T6</f>
+        <v>7000</v>
+      </c>
+      <c r="U18" s="143">
+        <f t="shared" si="3"/>
+        <v>5200</v>
+      </c>
+      <c r="V18" s="143">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="W18" s="144">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="X18" s="143">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="Y18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="145">
+        <f>SUM(T18:AA18)</f>
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="P19" s="149"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="146"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
+        <f>M17+P19</f>
+        <v>13750.32</v>
+      </c>
+      <c r="Q20" s="211"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="155"/>
+    </row>
+    <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="195"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="W21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="197"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="200"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="172"/>
+    </row>
+    <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="174"/>
+    </row>
+    <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+    </row>
+    <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+    </row>
+    <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+    </row>
+    <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+    </row>
+    <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+    </row>
+    <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="200"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="200"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="200"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6973,7 +8145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -6981,7 +8153,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7017,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -7078,7 +8250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -7108,11 +8280,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>7500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7123,11 +8295,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>2800</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7138,11 +8310,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7153,11 +8325,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7168,11 +8340,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -7224,7 +8396,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>12440</v>
+        <v>13750</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="SEMANA   11     2022   " sheetId="13" r:id="rId11"/>
     <sheet name="SEMANA   12     2022    " sheetId="14" r:id="rId12"/>
     <sheet name="SEMANA 13   2022       " sheetId="15" r:id="rId13"/>
-    <sheet name="Hoja1" sheetId="16" r:id="rId14"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId15"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId16"/>
+    <sheet name="SEMANA    14      2022     " sheetId="16" r:id="rId14"/>
+    <sheet name="Hoja2" sheetId="17" r:id="rId15"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId16"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="55">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -201,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  13    DEL     28   AL  03       A B R I L        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  14    DEL     04   AL  10       A B R I L        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1726,6 +1730,7 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1735,7 +1740,6 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2275,38 +2279,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -3292,13 +3296,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>16916.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -3514,38 +3518,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -4524,13 +4528,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>13060.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -4648,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,38 +4680,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -5686,13 +5690,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>14310.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -5810,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5838,38 +5842,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -6846,13 +6850,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>12440.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -6968,13 +6972,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7001,38 +7002,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -7212,7 +7213,7 @@
       <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="209" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="45">
@@ -8013,13 +8014,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>13750.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -8135,6 +8136,937 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P13" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="204">
+        <v>44242</v>
+      </c>
+      <c r="D8" s="208">
+        <v>366.67</v>
+      </c>
+      <c r="E8" s="63">
+        <v>5</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="49">
+        <f>D8*E8-0.02</f>
+        <v>1833.3300000000002</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="53">
+        <f>I8+H8</f>
+        <v>1833.3300000000002</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>1833.3300000000002</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="206">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="104">
+        <v>300</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9</f>
+        <v>1800</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" ref="M9:M13" si="1">I9+H9+G9-L9</f>
+        <v>1800</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="205"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>2100</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f>I10+H10+G10-L10</f>
+        <v>2100</v>
+      </c>
+      <c r="N10" s="108">
+        <v>0</v>
+      </c>
+      <c r="O10" s="109">
+        <v>0</v>
+      </c>
+      <c r="P10" s="98">
+        <f>M10-O10</f>
+        <v>2100</v>
+      </c>
+      <c r="Q10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="111"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="112">
+        <v>2</v>
+      </c>
+      <c r="U10" s="113">
+        <v>4</v>
+      </c>
+      <c r="V10" s="113">
+        <v>2</v>
+      </c>
+      <c r="W10" s="113">
+        <v>2</v>
+      </c>
+      <c r="X10" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="114"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E11" s="47">
+        <v>6</v>
+      </c>
+      <c r="F11" s="47">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*E11</f>
+        <v>2500.02</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="53">
+        <f>I11+H11+G11-L11-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="N11" s="108">
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
+        <v>0</v>
+      </c>
+      <c r="P11" s="98">
+        <f>M11-O11</f>
+        <v>2500</v>
+      </c>
+      <c r="Q11" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="111"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="112">
+        <v>3</v>
+      </c>
+      <c r="U11" s="113">
+        <v>4</v>
+      </c>
+      <c r="V11" s="113">
+        <v>1</v>
+      </c>
+      <c r="W11" s="113">
+        <v>0</v>
+      </c>
+      <c r="X11" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="114"/>
+    </row>
+    <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*E12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="53">
+        <f>I12+H12+G12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
+        <v>0</v>
+      </c>
+      <c r="O12" s="109">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f>M12-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="111"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="112">
+        <v>0</v>
+      </c>
+      <c r="U12" s="113">
+        <v>0</v>
+      </c>
+      <c r="V12" s="113">
+        <v>0</v>
+      </c>
+      <c r="W12" s="113">
+        <v>0</v>
+      </c>
+      <c r="X12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="119"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="120">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122">
+        <v>0</v>
+      </c>
+      <c r="M13" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
+        <v>0</v>
+      </c>
+      <c r="O13" s="125">
+        <v>0</v>
+      </c>
+      <c r="P13" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="102"/>
+      <c r="T13" s="126">
+        <f>SUM(T7:T12)</f>
+        <v>11</v>
+      </c>
+      <c r="U13" s="126">
+        <f>SUM(U7:U12)</f>
+        <v>20</v>
+      </c>
+      <c r="V13" s="126">
+        <f>SUM(V7:V12)</f>
+        <v>7</v>
+      </c>
+      <c r="W13" s="126">
+        <f>SUM(W7:W12)</f>
+        <v>2</v>
+      </c>
+      <c r="X13" s="126">
+        <f>SUM(X7:X12)</f>
+        <v>6</v>
+      </c>
+      <c r="Y13" s="126">
+        <f>SUM(Y7:Y12)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="126">
+        <f>SUM(Z7:Z12)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="126">
+        <f>SUM(AA7:AA12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="132">
+        <f>SUM(H7:H13)</f>
+        <v>10433.370000000001</v>
+      </c>
+      <c r="I14" s="133">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134">
+        <f>SUM(L7:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="135">
+        <f>SUM(M7:M13)</f>
+        <v>10433.33</v>
+      </c>
+      <c r="N14" s="136">
+        <f>SUM(N8:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="137">
+        <f>SUM(O8:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="138">
+        <f>SUM(P7:P13)</f>
+        <v>10433.33</v>
+      </c>
+      <c r="Q14" s="110"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="M15" s="7"/>
+      <c r="P15">
+        <v>1616</v>
+      </c>
+      <c r="Q15" s="142"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="143">
+        <f>T13*T6</f>
+        <v>5500</v>
+      </c>
+      <c r="U15" s="143">
+        <f>U13*U6</f>
+        <v>4000</v>
+      </c>
+      <c r="V15" s="143">
+        <f>V13*V6</f>
+        <v>700</v>
+      </c>
+      <c r="W15" s="144">
+        <f>W13*W6</f>
+        <v>100</v>
+      </c>
+      <c r="X15" s="143">
+        <f>X13*X6</f>
+        <v>120</v>
+      </c>
+      <c r="Y15" s="143">
+        <f>Y13*Y6</f>
+        <v>10</v>
+      </c>
+      <c r="Z15" s="143">
+        <f>Z13*Z6</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="143">
+        <f>AA13*AA6</f>
+        <v>3</v>
+      </c>
+      <c r="AB15" s="145">
+        <f>SUM(T15:AA15)</f>
+        <v>10433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="P16" s="149"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="211"/>
+      <c r="O17" s="211"/>
+      <c r="P17" s="212">
+        <f>M14+P16</f>
+        <v>10433.33</v>
+      </c>
+      <c r="Q17" s="212"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="155"/>
+    </row>
+    <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="200"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="200"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="174"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="200"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="200"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="203"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8145,15 +9077,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8165,8 +9097,8 @@
   <sheetData>
     <row r="1" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="183" t="s">
-        <v>38</v>
+      <c r="B2" s="189" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -8180,9 +9112,7 @@
       <c r="C4" s="186"/>
       <c r="D4" s="186"/>
       <c r="E4" s="186"/>
-      <c r="F4" s="187" t="s">
-        <v>20</v>
-      </c>
+      <c r="F4" s="187"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -8250,7 +9180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -8258,7 +9188,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8280,11 +9210,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>7000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -8295,11 +9225,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>5200</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -8310,11 +9240,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -8325,11 +9255,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -8340,11 +9270,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -8355,11 +9285,11 @@
         <v>37</v>
       </c>
       <c r="F11" s="179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -8385,18 +9315,18 @@
         <v>37</v>
       </c>
       <c r="F13" s="179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>13750</v>
+        <v>10433</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8437,38 +9367,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -9452,13 +10382,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>16743.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -9676,38 +10606,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -10689,13 +11619,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>16780.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -10915,38 +11845,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -11930,13 +12860,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>16580.650000000001</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -12158,38 +13088,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -13175,13 +14105,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>15930.01</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -13403,38 +14333,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -14418,13 +15348,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>15544.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -14650,38 +15580,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -15666,13 +16596,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>14897.33</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -15901,38 +16831,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -16918,13 +17848,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>12660.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -17070,38 +18000,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -18080,13 +19010,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211">
+      <c r="N20" s="211"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="212">
         <f>M17+P19</f>
         <v>13190.32</v>
       </c>
-      <c r="Q20" s="211"/>
+      <c r="Q20" s="212"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="14" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="SEMANA   12     2022    " sheetId="14" r:id="rId12"/>
     <sheet name="SEMANA 13   2022       " sheetId="15" r:id="rId13"/>
     <sheet name="SEMANA    14      2022     " sheetId="16" r:id="rId14"/>
-    <sheet name="Hoja2" sheetId="17" r:id="rId15"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId16"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId17"/>
+    <sheet name="SEMANA  15    2022       " sheetId="17" r:id="rId15"/>
+    <sheet name="Hoja1" sheetId="18" r:id="rId16"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId17"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="56">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -205,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  14    DEL     04   AL  10       A B R I L        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  15    DEL     11   AL  17       A B R I L        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -8136,13 +8140,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8773,35 +8774,35 @@
       </c>
       <c r="S13" s="102"/>
       <c r="T13" s="126">
-        <f>SUM(T7:T12)</f>
+        <f t="shared" ref="T13:AA13" si="2">SUM(T7:T12)</f>
         <v>11</v>
       </c>
       <c r="U13" s="126">
-        <f>SUM(U7:U12)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="V13" s="126">
-        <f>SUM(V7:V12)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="W13" s="126">
-        <f>SUM(W7:W12)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X13" s="126">
-        <f>SUM(X7:X12)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Y13" s="126">
-        <f>SUM(Y7:Y12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z13" s="126">
-        <f>SUM(Z7:Z12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA13" s="126">
-        <f>SUM(AA7:AA12)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -8867,35 +8868,35 @@
       <c r="Q15" s="142"/>
       <c r="S15" s="102"/>
       <c r="T15" s="143">
-        <f>T13*T6</f>
+        <f t="shared" ref="T15:AA15" si="3">T13*T6</f>
         <v>5500</v>
       </c>
       <c r="U15" s="143">
-        <f>U13*U6</f>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="V15" s="143">
-        <f>V13*V6</f>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="W15" s="144">
-        <f>W13*W6</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="X15" s="143">
-        <f>X13*X6</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="Y15" s="143">
-        <f>Y13*Y6</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Z15" s="143">
-        <f>Z13*Z6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15" s="143">
-        <f>AA13*AA6</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AB15" s="145">
@@ -9067,6 +9068,937 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="210" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P13" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="204">
+        <v>44242</v>
+      </c>
+      <c r="D8" s="208">
+        <v>366.67</v>
+      </c>
+      <c r="E8" s="63">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="49">
+        <f>D8*E8-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="53">
+        <f>I8+H8</f>
+        <v>2200</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="206">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="104">
+        <v>300</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9</f>
+        <v>1800</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" ref="M9:M13" si="1">I9+H9+G9-L9</f>
+        <v>1800</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="205"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>2520</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f>I10+H10+G10-L10</f>
+        <v>2520</v>
+      </c>
+      <c r="N10" s="108">
+        <v>0</v>
+      </c>
+      <c r="O10" s="109">
+        <v>0</v>
+      </c>
+      <c r="P10" s="98">
+        <f>M10-O10</f>
+        <v>2520</v>
+      </c>
+      <c r="Q10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="111"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="112">
+        <v>2</v>
+      </c>
+      <c r="U10" s="113">
+        <v>5</v>
+      </c>
+      <c r="V10" s="113">
+        <v>2</v>
+      </c>
+      <c r="W10" s="113">
+        <v>4</v>
+      </c>
+      <c r="X10" s="113">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="114"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E11" s="47">
+        <v>6</v>
+      </c>
+      <c r="F11" s="47">
+        <v>3</v>
+      </c>
+      <c r="G11" s="48">
+        <f>D11*F11</f>
+        <v>1250.01</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*E11</f>
+        <v>2500.02</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="53">
+        <f>I11+H11+G11-L11-0.03</f>
+        <v>3749.9999999999995</v>
+      </c>
+      <c r="N11" s="108">
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
+        <v>0</v>
+      </c>
+      <c r="P11" s="98">
+        <f>M11-O11</f>
+        <v>3749.9999999999995</v>
+      </c>
+      <c r="Q11" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="111"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="112">
+        <v>5</v>
+      </c>
+      <c r="U11" s="113">
+        <v>5</v>
+      </c>
+      <c r="V11" s="113">
+        <v>1</v>
+      </c>
+      <c r="W11" s="113">
+        <v>1</v>
+      </c>
+      <c r="X11" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="114"/>
+    </row>
+    <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*E12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="53">
+        <f>I12+H12+G12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
+        <v>0</v>
+      </c>
+      <c r="O12" s="109">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f>M12-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="111"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="112">
+        <v>0</v>
+      </c>
+      <c r="U12" s="113">
+        <v>0</v>
+      </c>
+      <c r="V12" s="113">
+        <v>0</v>
+      </c>
+      <c r="W12" s="113">
+        <v>0</v>
+      </c>
+      <c r="X12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="119"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="120">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122">
+        <v>0</v>
+      </c>
+      <c r="M13" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
+        <v>0</v>
+      </c>
+      <c r="O13" s="125">
+        <v>0</v>
+      </c>
+      <c r="P13" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="102"/>
+      <c r="T13" s="126">
+        <f t="shared" ref="T13:AA13" si="2">SUM(T7:T12)</f>
+        <v>13</v>
+      </c>
+      <c r="U13" s="126">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="V13" s="126">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="W13" s="126">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X13" s="126">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Y13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="132">
+        <f>SUM(H7:H13)</f>
+        <v>11220.04</v>
+      </c>
+      <c r="I14" s="133">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134">
+        <f>SUM(L7:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="135">
+        <f>SUM(M7:M13)</f>
+        <v>12470</v>
+      </c>
+      <c r="N14" s="136">
+        <f>SUM(N8:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="137">
+        <f>SUM(O8:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="138">
+        <f>SUM(P7:P13)</f>
+        <v>12470</v>
+      </c>
+      <c r="Q14" s="110"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="M15" s="7"/>
+      <c r="P15">
+        <v>1616</v>
+      </c>
+      <c r="Q15" s="142"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="143">
+        <f t="shared" ref="T15:AA15" si="3">T13*T6</f>
+        <v>6500</v>
+      </c>
+      <c r="U15" s="143">
+        <f t="shared" si="3"/>
+        <v>4600</v>
+      </c>
+      <c r="V15" s="143">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="W15" s="144">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="X15" s="143">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="Y15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="145">
+        <f>SUM(T15:AA15)</f>
+        <v>12470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="P16" s="149"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="211"/>
+      <c r="O17" s="211"/>
+      <c r="P17" s="212">
+        <f>M14+P16</f>
+        <v>12470</v>
+      </c>
+      <c r="Q17" s="212"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="155"/>
+    </row>
+    <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="200"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="200"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="174"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="200"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="200"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="203"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9077,15 +10009,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9097,8 +10029,8 @@
   <sheetData>
     <row r="1" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
-        <v>30</v>
+      <c r="B2" s="183" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -9180,7 +10112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -9188,7 +10120,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9210,11 +10142,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>5500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9225,11 +10157,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>4000</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9240,11 +10172,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9255,11 +10187,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9270,11 +10202,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9285,11 +10217,11 @@
         <v>37</v>
       </c>
       <c r="F11" s="179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="180">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -9318,15 +10250,14 @@
         <v>3</v>
       </c>
       <c r="G13" s="180">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>10433</v>
+        <v>12470</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="SEMANA 13   2022       " sheetId="15" r:id="rId13"/>
     <sheet name="SEMANA    14      2022     " sheetId="16" r:id="rId14"/>
     <sheet name="SEMANA  15    2022       " sheetId="17" r:id="rId15"/>
-    <sheet name="Hoja1" sheetId="18" r:id="rId16"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId17"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId18"/>
+    <sheet name="SEMANA    16    2022      " sheetId="18" r:id="rId16"/>
+    <sheet name="Hoja2" sheetId="19" r:id="rId17"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId18"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="57">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -209,6 +210,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  15    DEL     11   AL  17       A B R I L        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  16    DEL     18  AL  24       A B R I L        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -9068,13 +9072,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9999,6 +10000,937 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="210" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P13" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="204">
+        <v>44242</v>
+      </c>
+      <c r="D8" s="208">
+        <v>366.67</v>
+      </c>
+      <c r="E8" s="63">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="49">
+        <f>D8*E8-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="53">
+        <f>I8+H8</f>
+        <v>2200</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="206">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="104">
+        <v>300</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
+      </c>
+      <c r="G9" s="48">
+        <v>300</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9</f>
+        <v>1800</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" ref="M9:M13" si="1">I9+H9+G9-L9</f>
+        <v>2100</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="205"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>560</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f>I10+H10+G10-L10</f>
+        <v>560</v>
+      </c>
+      <c r="N10" s="108">
+        <v>0</v>
+      </c>
+      <c r="O10" s="109">
+        <v>0</v>
+      </c>
+      <c r="P10" s="98">
+        <f>M10-O10</f>
+        <v>560</v>
+      </c>
+      <c r="Q10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="111"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="112">
+        <v>0</v>
+      </c>
+      <c r="U10" s="113">
+        <v>0</v>
+      </c>
+      <c r="V10" s="113">
+        <v>5</v>
+      </c>
+      <c r="W10" s="113">
+        <v>0</v>
+      </c>
+      <c r="X10" s="113">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="114"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E11" s="47">
+        <v>6</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48">
+        <f>D11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*E11</f>
+        <v>2500.02</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="53">
+        <f>I11+H11+G11-L11-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="N11" s="108">
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
+        <v>0</v>
+      </c>
+      <c r="P11" s="98">
+        <f>M11-O11</f>
+        <v>2500</v>
+      </c>
+      <c r="Q11" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="111"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="112">
+        <v>3</v>
+      </c>
+      <c r="U11" s="113">
+        <v>0</v>
+      </c>
+      <c r="V11" s="113">
+        <v>7</v>
+      </c>
+      <c r="W11" s="113">
+        <v>6</v>
+      </c>
+      <c r="X11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="114"/>
+    </row>
+    <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*E12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="53">
+        <f>I12+H12+G12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
+        <v>0</v>
+      </c>
+      <c r="O12" s="109">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f>M12-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="111"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="112">
+        <v>0</v>
+      </c>
+      <c r="U12" s="113">
+        <v>0</v>
+      </c>
+      <c r="V12" s="113">
+        <v>0</v>
+      </c>
+      <c r="W12" s="113">
+        <v>0</v>
+      </c>
+      <c r="X12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="119"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="120">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122">
+        <v>0</v>
+      </c>
+      <c r="M13" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
+        <v>0</v>
+      </c>
+      <c r="O13" s="125">
+        <v>0</v>
+      </c>
+      <c r="P13" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="102"/>
+      <c r="T13" s="126">
+        <f t="shared" ref="T13:AA13" si="2">SUM(T7:T12)</f>
+        <v>9</v>
+      </c>
+      <c r="U13" s="126">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V13" s="126">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="W13" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X13" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="132">
+        <f>SUM(H7:H13)</f>
+        <v>9260.0400000000009</v>
+      </c>
+      <c r="I14" s="133">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134">
+        <f>SUM(L7:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="135">
+        <f>SUM(M7:M13)</f>
+        <v>9560</v>
+      </c>
+      <c r="N14" s="136">
+        <f>SUM(N8:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="137">
+        <f>SUM(O8:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="138">
+        <f>SUM(P7:P13)</f>
+        <v>9560</v>
+      </c>
+      <c r="Q14" s="110"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="M15" s="7"/>
+      <c r="P15">
+        <v>1616</v>
+      </c>
+      <c r="Q15" s="142"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="143">
+        <f t="shared" ref="T15:AA15" si="3">T13*T6</f>
+        <v>4500</v>
+      </c>
+      <c r="U15" s="143">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="V15" s="143">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="W15" s="144">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="X15" s="143">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="Y15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="145">
+        <f>SUM(T15:AA15)</f>
+        <v>9560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="P16" s="149"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="211"/>
+      <c r="O17" s="211"/>
+      <c r="P17" s="212">
+        <f>M14+P16</f>
+        <v>9560</v>
+      </c>
+      <c r="Q17" s="212"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="155"/>
+    </row>
+    <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="200"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="200"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="174"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="200"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="200"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="203"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10009,15 +10941,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10112,7 +11044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -10120,7 +11052,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10142,11 +11074,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>6500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -10157,11 +11089,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G7" s="180">
-        <f t="shared" ref="G7:G13" si="0">F7*D7</f>
-        <v>4600</v>
+        <f t="shared" ref="G7:G12" si="0">F7*D7</f>
+        <v>2800</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -10172,11 +11104,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -10187,11 +11119,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -10202,11 +11134,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -10257,7 +11189,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>12470</v>
+        <v>9560</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="16" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="SEMANA    14      2022     " sheetId="16" r:id="rId14"/>
     <sheet name="SEMANA  15    2022       " sheetId="17" r:id="rId15"/>
     <sheet name="SEMANA    16    2022      " sheetId="18" r:id="rId16"/>
-    <sheet name="Hoja2" sheetId="19" r:id="rId17"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId18"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId19"/>
+    <sheet name="    SEMANA    17    2022    " sheetId="19" r:id="rId17"/>
+    <sheet name="Hoja1" sheetId="20" r:id="rId18"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId19"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="58">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -213,6 +214,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  16    DEL     18  AL  24       A B R I L        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  17    DEL     25     AL  01       MAYO        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -10000,13 +10004,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10931,6 +10932,939 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="210" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P13" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="204">
+        <v>44242</v>
+      </c>
+      <c r="D8" s="208">
+        <v>366.67</v>
+      </c>
+      <c r="E8" s="63">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="49">
+        <f>D8*E8-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="53">
+        <f>I8+H8</f>
+        <v>2200</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="206">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="104">
+        <v>300</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9</f>
+        <v>1800</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" ref="M9:M13" si="1">I9+H9+G9-L9</f>
+        <v>1800</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="205"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1680</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f>I10+H10+G10-L10</f>
+        <v>1680</v>
+      </c>
+      <c r="N10" s="108">
+        <v>0</v>
+      </c>
+      <c r="O10" s="109">
+        <v>0</v>
+      </c>
+      <c r="P10" s="98">
+        <f>M10-O10</f>
+        <v>1680</v>
+      </c>
+      <c r="Q10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="111"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="112">
+        <v>2</v>
+      </c>
+      <c r="U10" s="113">
+        <v>2</v>
+      </c>
+      <c r="V10" s="113">
+        <v>0</v>
+      </c>
+      <c r="W10" s="113">
+        <v>4</v>
+      </c>
+      <c r="X10" s="113">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="114"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E11" s="47">
+        <v>6</v>
+      </c>
+      <c r="F11" s="47">
+        <v>3</v>
+      </c>
+      <c r="G11" s="48">
+        <f>D11*F11-0.01</f>
+        <v>1250</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*E11</f>
+        <v>2500.02</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="53">
+        <f>I11+H11+G11-L11-0.02</f>
+        <v>3750</v>
+      </c>
+      <c r="N11" s="108">
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
+        <v>0</v>
+      </c>
+      <c r="P11" s="98">
+        <f>M11-O11</f>
+        <v>3750</v>
+      </c>
+      <c r="Q11" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="111"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="112">
+        <v>4</v>
+      </c>
+      <c r="U11" s="113">
+        <v>5</v>
+      </c>
+      <c r="V11" s="113">
+        <v>5</v>
+      </c>
+      <c r="W11" s="113">
+        <v>3</v>
+      </c>
+      <c r="X11" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="114"/>
+    </row>
+    <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*E12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="53">
+        <f>I12+H12+G12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
+        <v>0</v>
+      </c>
+      <c r="O12" s="109">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f>M12-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="111"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="112">
+        <v>0</v>
+      </c>
+      <c r="U12" s="113">
+        <v>0</v>
+      </c>
+      <c r="V12" s="113">
+        <v>0</v>
+      </c>
+      <c r="W12" s="113">
+        <v>0</v>
+      </c>
+      <c r="X12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="119"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="120">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122">
+        <v>0</v>
+      </c>
+      <c r="M13" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
+        <v>0</v>
+      </c>
+      <c r="O13" s="125">
+        <v>0</v>
+      </c>
+      <c r="P13" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="102"/>
+      <c r="T13" s="126">
+        <f t="shared" ref="T13:AA13" si="2">SUM(T7:T12)</f>
+        <v>12</v>
+      </c>
+      <c r="U13" s="126">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="V13" s="126">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W13" s="126">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="X13" s="126">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="132">
+        <f>SUM(H7:H13)</f>
+        <v>10380.040000000001</v>
+      </c>
+      <c r="I14" s="133">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134">
+        <f>SUM(L7:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="135">
+        <f>SUM(M7:M13)</f>
+        <v>11630</v>
+      </c>
+      <c r="N14" s="136">
+        <f>SUM(N8:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="137">
+        <f>SUM(O8:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="138">
+        <f>SUM(P7:P13)</f>
+        <v>11630</v>
+      </c>
+      <c r="Q14" s="110"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="M15" s="7"/>
+      <c r="P15">
+        <v>1616</v>
+      </c>
+      <c r="Q15" s="142"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="143">
+        <f t="shared" ref="T15:AA15" si="3">T13*T6</f>
+        <v>6000</v>
+      </c>
+      <c r="U15" s="143">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="V15" s="143">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="W15" s="144">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="X15" s="143">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="Y15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="145">
+        <f>SUM(T15:AA15)</f>
+        <v>11630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="P16" s="149"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="211"/>
+      <c r="O17" s="211"/>
+      <c r="P17" s="212">
+        <f>M14+P16</f>
+        <v>11630</v>
+      </c>
+      <c r="Q17" s="212"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="155"/>
+    </row>
+    <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="200"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="200"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="174"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="200"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="200"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="200"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="203"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="200"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="200"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="200"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="200"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="200"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="200"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10941,15 +11875,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11041,160 +11975,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="D5:G15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-    </row>
-    <row r="6" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D6" s="177">
-        <v>500</v>
-      </c>
-      <c r="E6" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="179">
-        <v>9</v>
-      </c>
-      <c r="G6" s="180">
-        <f>F6*D6</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D7" s="177">
-        <v>200</v>
-      </c>
-      <c r="E7" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="179">
-        <v>14</v>
-      </c>
-      <c r="G7" s="180">
-        <f t="shared" ref="G7:G12" si="0">F7*D7</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D8" s="177">
-        <v>100</v>
-      </c>
-      <c r="E8" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="179">
-        <v>17</v>
-      </c>
-      <c r="G8" s="180">
-        <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D9" s="177">
-        <v>50</v>
-      </c>
-      <c r="E9" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="179">
-        <v>8</v>
-      </c>
-      <c r="G9" s="180">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D10" s="177">
-        <v>20</v>
-      </c>
-      <c r="E10" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="179">
-        <v>8</v>
-      </c>
-      <c r="G10" s="180">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D11" s="177">
-        <v>10</v>
-      </c>
-      <c r="E11" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="179">
-        <v>0</v>
-      </c>
-      <c r="G11" s="180">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D12" s="177">
-        <v>5</v>
-      </c>
-      <c r="E12" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="179">
-        <v>0</v>
-      </c>
-      <c r="G12" s="180">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D13" s="177">
-        <v>1</v>
-      </c>
-      <c r="E13" s="178" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="179">
-        <v>3</v>
-      </c>
-      <c r="G13" s="180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="181"/>
-      <c r="G14" s="182">
-        <f>SUM(G6:G13)</f>
-        <v>9560</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12433,6 +13213,160 @@
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="P20:Q20"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="D5:G15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+    </row>
+    <row r="6" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D6" s="177">
+        <v>500</v>
+      </c>
+      <c r="E6" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="179">
+        <v>12</v>
+      </c>
+      <c r="G6" s="180">
+        <f>F6*D6</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D7" s="177">
+        <v>200</v>
+      </c>
+      <c r="E7" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="179">
+        <v>20</v>
+      </c>
+      <c r="G7" s="180">
+        <f t="shared" ref="G7:G12" si="0">F7*D7</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D8" s="177">
+        <v>100</v>
+      </c>
+      <c r="E8" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="179">
+        <v>10</v>
+      </c>
+      <c r="G8" s="180">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D9" s="177">
+        <v>50</v>
+      </c>
+      <c r="E9" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="179">
+        <v>9</v>
+      </c>
+      <c r="G9" s="180">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D10" s="177">
+        <v>20</v>
+      </c>
+      <c r="E10" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="179">
+        <v>9</v>
+      </c>
+      <c r="G10" s="180">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D11" s="177">
+        <v>10</v>
+      </c>
+      <c r="E11" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="179">
+        <v>0</v>
+      </c>
+      <c r="G11" s="180">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D12" s="177">
+        <v>5</v>
+      </c>
+      <c r="E12" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="179">
+        <v>0</v>
+      </c>
+      <c r="G12" s="180">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D13" s="177">
+        <v>1</v>
+      </c>
+      <c r="E13" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="179">
+        <v>3</v>
+      </c>
+      <c r="G13" s="180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="181"/>
+      <c r="G14" s="182">
+        <f>SUM(G6:G13)</f>
+        <v>11630</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="SEMANA  15    2022       " sheetId="17" r:id="rId15"/>
     <sheet name="SEMANA    16    2022      " sheetId="18" r:id="rId16"/>
     <sheet name="    SEMANA    17    2022    " sheetId="19" r:id="rId17"/>
-    <sheet name="Hoja1" sheetId="20" r:id="rId18"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId19"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId20"/>
+    <sheet name="   SEMANA   18    2022   " sheetId="20" r:id="rId18"/>
+    <sheet name="Hoja2" sheetId="21" r:id="rId19"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId20"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="59">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -217,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  17    DEL     25     AL  01       MAYO        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  18    DEL     02     AL  08       MAYO        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1696,9 +1700,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1787,8 +1788,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1835,8 +1836,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2291,38 +2292,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -3308,13 +3309,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>16916.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -3530,38 +3531,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -3790,7 +3791,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194"/>
+      <c r="R8" s="193"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>4</v>
@@ -3824,10 +3825,10 @@
       <c r="B9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="204">
+      <c r="C9" s="203">
         <v>44242</v>
       </c>
-      <c r="D9" s="208">
+      <c r="D9" s="207">
         <v>366.67</v>
       </c>
       <c r="E9" s="63">
@@ -3894,7 +3895,7 @@
       <c r="B10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="206">
+      <c r="C10" s="205">
         <v>44354</v>
       </c>
       <c r="D10" s="104">
@@ -4120,7 +4121,7 @@
       <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="205"/>
+      <c r="C13" s="204"/>
       <c r="D13" s="74">
         <v>280</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="60"/>
-      <c r="C15" s="207"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="74"/>
       <c r="E15" s="105">
         <v>0</v>
@@ -4540,20 +4541,20 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>13060.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="158"/>
       <c r="F21" s="159"/>
       <c r="G21" s="152"/>
@@ -4575,9 +4576,9 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="197"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="199"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="198"/>
       <c r="E22" s="152"/>
       <c r="F22" s="152"/>
       <c r="G22" s="152"/>
@@ -4589,9 +4590,9 @@
       <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="201"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="200"/>
       <c r="E23" s="170"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -4601,54 +4602,54 @@
       <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="174"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="200"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="200"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="200"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4692,38 +4693,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -4952,7 +4953,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194"/>
+      <c r="R8" s="193"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>4</v>
@@ -4986,10 +4987,10 @@
       <c r="B9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="204">
+      <c r="C9" s="203">
         <v>44242</v>
       </c>
-      <c r="D9" s="208">
+      <c r="D9" s="207">
         <v>366.67</v>
       </c>
       <c r="E9" s="63">
@@ -5056,7 +5057,7 @@
       <c r="B10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="206">
+      <c r="C10" s="205">
         <v>44354</v>
       </c>
       <c r="D10" s="104">
@@ -5282,7 +5283,7 @@
       <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="205"/>
+      <c r="C13" s="204"/>
       <c r="D13" s="74">
         <v>280</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="60"/>
-      <c r="C15" s="207"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="74"/>
       <c r="E15" s="105">
         <v>0</v>
@@ -5702,20 +5703,20 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>14310.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="158"/>
       <c r="F21" s="159"/>
       <c r="G21" s="152"/>
@@ -5737,9 +5738,9 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="197"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="199"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="198"/>
       <c r="E22" s="152"/>
       <c r="F22" s="152"/>
       <c r="G22" s="152"/>
@@ -5751,9 +5752,9 @@
       <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="201"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="200"/>
       <c r="E23" s="170"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -5763,54 +5764,54 @@
       <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="174"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="200"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="200"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="200"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5854,38 +5855,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -6114,7 +6115,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194"/>
+      <c r="R8" s="193"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>4</v>
@@ -6148,10 +6149,10 @@
       <c r="B9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="204">
+      <c r="C9" s="203">
         <v>44242</v>
       </c>
-      <c r="D9" s="208">
+      <c r="D9" s="207">
         <v>366.67</v>
       </c>
       <c r="E9" s="63">
@@ -6218,7 +6219,7 @@
       <c r="B10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="206">
+      <c r="C10" s="205">
         <v>44354</v>
       </c>
       <c r="D10" s="104">
@@ -6444,7 +6445,7 @@
       <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="205"/>
+      <c r="C13" s="204"/>
       <c r="D13" s="74">
         <v>280</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="60"/>
-      <c r="C15" s="207"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="74"/>
       <c r="E15" s="105">
         <v>0</v>
@@ -6862,20 +6863,20 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>12440.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="158"/>
       <c r="F21" s="159"/>
       <c r="G21" s="152"/>
@@ -6897,9 +6898,9 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="197"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="199"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="198"/>
       <c r="E22" s="152"/>
       <c r="F22" s="152"/>
       <c r="G22" s="152"/>
@@ -6911,9 +6912,9 @@
       <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="201"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="200"/>
       <c r="E23" s="170"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -6923,54 +6924,54 @@
       <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="174"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="200"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="200"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="200"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7014,38 +7015,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -7225,7 +7226,7 @@
       <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="209" t="s">
+      <c r="B8" s="208" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="45">
@@ -7274,7 +7275,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194"/>
+      <c r="R8" s="193"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>2</v>
@@ -7308,10 +7309,10 @@
       <c r="B9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="204">
+      <c r="C9" s="203">
         <v>44242</v>
       </c>
-      <c r="D9" s="208">
+      <c r="D9" s="207">
         <v>366.67</v>
       </c>
       <c r="E9" s="63">
@@ -7378,7 +7379,7 @@
       <c r="B10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="206">
+      <c r="C10" s="205">
         <v>44354</v>
       </c>
       <c r="D10" s="104">
@@ -7604,7 +7605,7 @@
       <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="205"/>
+      <c r="C13" s="204"/>
       <c r="D13" s="74">
         <v>280</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="60"/>
-      <c r="C15" s="207"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="74"/>
       <c r="E15" s="105">
         <v>0</v>
@@ -8026,20 +8027,20 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>13750.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="158"/>
       <c r="F21" s="159"/>
       <c r="G21" s="152"/>
@@ -8061,9 +8062,9 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="197"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="199"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="198"/>
       <c r="E22" s="152"/>
       <c r="F22" s="152"/>
       <c r="G22" s="152"/>
@@ -8075,9 +8076,9 @@
       <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="201"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="200"/>
       <c r="E23" s="170"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -8087,54 +8088,54 @@
       <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="174"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="200"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="200"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="200"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8178,38 +8179,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -8392,10 +8393,10 @@
       <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C8" s="203">
         <v>44242</v>
       </c>
-      <c r="D8" s="208">
+      <c r="D8" s="207">
         <v>366.67</v>
       </c>
       <c r="E8" s="63">
@@ -8462,7 +8463,7 @@
       <c r="B9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="206">
+      <c r="C9" s="205">
         <v>44354</v>
       </c>
       <c r="D9" s="104">
@@ -8536,7 +8537,7 @@
       <c r="B10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="205"/>
+      <c r="C10" s="204"/>
       <c r="D10" s="74">
         <v>280</v>
       </c>
@@ -8678,7 +8679,7 @@
     <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="60"/>
-      <c r="C12" s="207"/>
+      <c r="C12" s="206"/>
       <c r="D12" s="74"/>
       <c r="E12" s="105">
         <v>0</v>
@@ -8954,20 +8955,20 @@
       <c r="K17" s="153"/>
       <c r="L17" s="153"/>
       <c r="M17" s="154"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="212">
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="211">
         <f>M14+P16</f>
         <v>10433.33</v>
       </c>
-      <c r="Q17" s="212"/>
+      <c r="Q17" s="211"/>
       <c r="W17" s="10"/>
       <c r="X17" s="155"/>
     </row>
     <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="158"/>
       <c r="F18" s="159"/>
       <c r="G18" s="152"/>
@@ -8989,9 +8990,9 @@
       </c>
     </row>
     <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="197"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
       <c r="E19" s="152"/>
       <c r="F19" s="152"/>
       <c r="G19" s="152"/>
@@ -9003,9 +9004,9 @@
       <c r="M19" s="166"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="200"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="201"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="170"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -9015,54 +9016,54 @@
       <c r="L20" s="172"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="200"/>
-      <c r="C21" s="202"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="174"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="200"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
     </row>
     <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
     </row>
     <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9106,38 +9107,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -9320,10 +9321,10 @@
       <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C8" s="203">
         <v>44242</v>
       </c>
-      <c r="D8" s="208">
+      <c r="D8" s="207">
         <v>366.67</v>
       </c>
       <c r="E8" s="63">
@@ -9390,7 +9391,7 @@
       <c r="B9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="206">
+      <c r="C9" s="205">
         <v>44354</v>
       </c>
       <c r="D9" s="104">
@@ -9464,7 +9465,7 @@
       <c r="B10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="205"/>
+      <c r="C10" s="204"/>
       <c r="D10" s="74">
         <v>280</v>
       </c>
@@ -9606,7 +9607,7 @@
     <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="60"/>
-      <c r="C12" s="207"/>
+      <c r="C12" s="206"/>
       <c r="D12" s="74"/>
       <c r="E12" s="105">
         <v>0</v>
@@ -9882,20 +9883,20 @@
       <c r="K17" s="153"/>
       <c r="L17" s="153"/>
       <c r="M17" s="154"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="212">
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="211">
         <f>M14+P16</f>
         <v>12470</v>
       </c>
-      <c r="Q17" s="212"/>
+      <c r="Q17" s="211"/>
       <c r="W17" s="10"/>
       <c r="X17" s="155"/>
     </row>
     <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="158"/>
       <c r="F18" s="159"/>
       <c r="G18" s="152"/>
@@ -9917,9 +9918,9 @@
       </c>
     </row>
     <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="197"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
       <c r="E19" s="152"/>
       <c r="F19" s="152"/>
       <c r="G19" s="152"/>
@@ -9931,9 +9932,9 @@
       <c r="M19" s="166"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="200"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="201"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="170"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -9943,54 +9944,54 @@
       <c r="L20" s="172"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="200"/>
-      <c r="C21" s="202"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="174"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="200"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
     </row>
     <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
     </row>
     <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10034,38 +10035,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -10248,10 +10249,10 @@
       <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C8" s="203">
         <v>44242</v>
       </c>
-      <c r="D8" s="208">
+      <c r="D8" s="207">
         <v>366.67</v>
       </c>
       <c r="E8" s="63">
@@ -10318,7 +10319,7 @@
       <c r="B9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="206">
+      <c r="C9" s="205">
         <v>44354</v>
       </c>
       <c r="D9" s="104">
@@ -10394,7 +10395,7 @@
       <c r="B10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="205"/>
+      <c r="C10" s="204"/>
       <c r="D10" s="74">
         <v>280</v>
       </c>
@@ -10534,7 +10535,7 @@
     <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="60"/>
-      <c r="C12" s="207"/>
+      <c r="C12" s="206"/>
       <c r="D12" s="74"/>
       <c r="E12" s="105">
         <v>0</v>
@@ -10810,20 +10811,20 @@
       <c r="K17" s="153"/>
       <c r="L17" s="153"/>
       <c r="M17" s="154"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="212">
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="211">
         <f>M14+P16</f>
         <v>9560</v>
       </c>
-      <c r="Q17" s="212"/>
+      <c r="Q17" s="211"/>
       <c r="W17" s="10"/>
       <c r="X17" s="155"/>
     </row>
     <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="158"/>
       <c r="F18" s="159"/>
       <c r="G18" s="152"/>
@@ -10845,9 +10846,9 @@
       </c>
     </row>
     <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="197"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
       <c r="E19" s="152"/>
       <c r="F19" s="152"/>
       <c r="G19" s="152"/>
@@ -10859,9 +10860,9 @@
       <c r="M19" s="166"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="200"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="201"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="170"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -10871,54 +10872,54 @@
       <c r="L20" s="172"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="200"/>
-      <c r="C21" s="202"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="174"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="200"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
     </row>
     <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
     </row>
     <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10932,13 +10933,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10965,38 +10963,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -11179,10 +11177,10 @@
       <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="204">
+      <c r="C8" s="203">
         <v>44242</v>
       </c>
-      <c r="D8" s="208">
+      <c r="D8" s="207">
         <v>366.67</v>
       </c>
       <c r="E8" s="63">
@@ -11249,7 +11247,7 @@
       <c r="B9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="206">
+      <c r="C9" s="205">
         <v>44354</v>
       </c>
       <c r="D9" s="104">
@@ -11323,7 +11321,7 @@
       <c r="B10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="205"/>
+      <c r="C10" s="204"/>
       <c r="D10" s="74">
         <v>280</v>
       </c>
@@ -11467,7 +11465,7 @@
     <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
       <c r="B12" s="60"/>
-      <c r="C12" s="207"/>
+      <c r="C12" s="206"/>
       <c r="D12" s="74"/>
       <c r="E12" s="105">
         <v>0</v>
@@ -11743,20 +11741,20 @@
       <c r="K17" s="153"/>
       <c r="L17" s="153"/>
       <c r="M17" s="154"/>
-      <c r="N17" s="211"/>
-      <c r="O17" s="211"/>
-      <c r="P17" s="212">
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="211">
         <f>M14+P16</f>
         <v>11630</v>
       </c>
-      <c r="Q17" s="212"/>
+      <c r="Q17" s="211"/>
       <c r="W17" s="10"/>
       <c r="X17" s="155"/>
     </row>
     <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="158"/>
       <c r="F18" s="159"/>
       <c r="G18" s="152"/>
@@ -11778,9 +11776,9 @@
       </c>
     </row>
     <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="197"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
       <c r="E19" s="152"/>
       <c r="F19" s="152"/>
       <c r="G19" s="152"/>
@@ -11792,9 +11790,9 @@
       <c r="M19" s="166"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="200"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="201"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
       <c r="E20" s="170"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -11804,54 +11802,54 @@
       <c r="L20" s="172"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="200"/>
-      <c r="C21" s="202"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="174"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="200"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
     </row>
     <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
     </row>
     <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11865,6 +11863,936 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="209" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P13" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="203">
+        <v>44242</v>
+      </c>
+      <c r="D8" s="207">
+        <v>366.67</v>
+      </c>
+      <c r="E8" s="63">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="49">
+        <f>D8*E8-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="53">
+        <f>I8+H8</f>
+        <v>2200</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="205">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="104">
+        <v>300</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9</f>
+        <v>1800</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" ref="M9:M13" si="1">I9+H9+G9-L9</f>
+        <v>1800</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="204"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1960</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f>I10+H10+G10-L10</f>
+        <v>1960</v>
+      </c>
+      <c r="N10" s="108">
+        <v>0</v>
+      </c>
+      <c r="O10" s="109">
+        <v>0</v>
+      </c>
+      <c r="P10" s="98">
+        <f>M10-O10</f>
+        <v>1960</v>
+      </c>
+      <c r="Q10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="111"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="112">
+        <v>3</v>
+      </c>
+      <c r="U10" s="113">
+        <v>1</v>
+      </c>
+      <c r="V10" s="113">
+        <v>1</v>
+      </c>
+      <c r="W10" s="113">
+        <v>2</v>
+      </c>
+      <c r="X10" s="113">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="114"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E11" s="47">
+        <v>6</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*E11</f>
+        <v>2500.02</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="53">
+        <f>I11+H11+G11-L11-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="N11" s="108">
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
+        <v>0</v>
+      </c>
+      <c r="P11" s="98">
+        <f>M11-O11</f>
+        <v>2500</v>
+      </c>
+      <c r="Q11" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="111"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="112">
+        <v>2</v>
+      </c>
+      <c r="U11" s="113">
+        <v>5</v>
+      </c>
+      <c r="V11" s="113">
+        <v>4</v>
+      </c>
+      <c r="W11" s="113">
+        <v>0</v>
+      </c>
+      <c r="X11" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="114"/>
+    </row>
+    <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*E12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="53">
+        <f>I12+H12+G12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
+        <v>0</v>
+      </c>
+      <c r="O12" s="109">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f>M12-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="111"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="112">
+        <v>0</v>
+      </c>
+      <c r="U12" s="113">
+        <v>0</v>
+      </c>
+      <c r="V12" s="113">
+        <v>0</v>
+      </c>
+      <c r="W12" s="113">
+        <v>0</v>
+      </c>
+      <c r="X12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="119"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="120">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122">
+        <v>0</v>
+      </c>
+      <c r="M13" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
+        <v>0</v>
+      </c>
+      <c r="O13" s="125">
+        <v>0</v>
+      </c>
+      <c r="P13" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="102"/>
+      <c r="T13" s="126">
+        <f t="shared" ref="T13:AA13" si="2">SUM(T7:T12)</f>
+        <v>11</v>
+      </c>
+      <c r="U13" s="126">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="V13" s="126">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W13" s="126">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X13" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="132">
+        <f>SUM(H7:H13)</f>
+        <v>10660.04</v>
+      </c>
+      <c r="I14" s="133">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134">
+        <f>SUM(L7:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="135">
+        <f>SUM(M7:M13)</f>
+        <v>10660</v>
+      </c>
+      <c r="N14" s="136">
+        <f>SUM(N8:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="137">
+        <f>SUM(O8:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="138">
+        <f>SUM(P7:P13)</f>
+        <v>10660</v>
+      </c>
+      <c r="Q14" s="110"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="M15" s="7"/>
+      <c r="P15">
+        <v>1616</v>
+      </c>
+      <c r="Q15" s="142"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="143">
+        <f t="shared" ref="T15:AA15" si="3">T13*T6</f>
+        <v>5500</v>
+      </c>
+      <c r="U15" s="143">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="V15" s="143">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="W15" s="144">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="X15" s="143">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="Y15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="145">
+        <f>SUM(T15:AA15)</f>
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="P16" s="149"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="211">
+        <f>M14+P16</f>
+        <v>10660</v>
+      </c>
+      <c r="Q17" s="211"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="155"/>
+    </row>
+    <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="199"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="199"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="174"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="199"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="199"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11872,109 +12800,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="B1:F16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="183" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="184" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="185"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="192" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="189" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="F8" s="189" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="190"/>
-      <c r="F9" s="183" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="190"/>
-    </row>
-    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="190"/>
-      <c r="F11" s="189" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="190"/>
-    </row>
-    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="191"/>
-    </row>
-    <row r="14" spans="2:6" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="191"/>
-      <c r="F14" s="188" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="190"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="190"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12010,38 +12835,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -13025,13 +13850,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>16743.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -13218,6 +14043,109 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="188" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="185"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="188" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="183" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="191" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="189"/>
+      <c r="F9" s="183"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="189"/>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="189"/>
+      <c r="F11" s="188" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="189"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="190"/>
+    </row>
+    <row r="14" spans="2:6" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="190"/>
+      <c r="F14" s="187" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="189"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="189"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -13247,11 +14175,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>6000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -13262,11 +14190,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G12" si="0">F7*D7</f>
-        <v>4000</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -13292,11 +14220,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -13307,11 +14235,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -13362,7 +14290,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>11630</v>
+        <v>10660</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -13403,38 +14331,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -14416,13 +15344,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>16780.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -14642,38 +15570,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -15657,13 +16585,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>16580.650000000001</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -15885,38 +16813,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -16145,7 +17073,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="193">
+      <c r="R8" s="192">
         <v>-283</v>
       </c>
       <c r="S8" s="59"/>
@@ -16902,13 +17830,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>15930.01</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -17130,38 +18058,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -17390,7 +18318,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194"/>
+      <c r="R8" s="193"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>0</v>
@@ -18145,13 +19073,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>15544.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -18377,38 +19305,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -18637,7 +19565,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194"/>
+      <c r="R8" s="193"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>4</v>
@@ -19393,13 +20321,13 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>14897.33</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
@@ -19628,38 +20556,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -19888,7 +20816,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194"/>
+      <c r="R8" s="193"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>4</v>
@@ -20645,20 +21573,20 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>12660.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="158"/>
       <c r="F21" s="159"/>
       <c r="G21" s="152"/>
@@ -20680,9 +21608,9 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="197"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="199"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="198"/>
       <c r="E22" s="152"/>
       <c r="F22" s="152"/>
       <c r="G22" s="152"/>
@@ -20694,9 +21622,9 @@
       <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="201"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="200"/>
       <c r="E23" s="170"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -20706,54 +21634,54 @@
       <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="174"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="200"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="200"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="200"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -20797,38 +21725,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
@@ -21057,7 +21985,7 @@
       <c r="Q8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="194"/>
+      <c r="R8" s="193"/>
       <c r="S8" s="59"/>
       <c r="T8">
         <v>4</v>
@@ -21091,10 +22019,10 @@
       <c r="B9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="204">
+      <c r="C9" s="203">
         <v>44242</v>
       </c>
-      <c r="D9" s="208">
+      <c r="D9" s="207">
         <v>366.67</v>
       </c>
       <c r="E9" s="63">
@@ -21161,7 +22089,7 @@
       <c r="B10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="206">
+      <c r="C10" s="205">
         <v>44354</v>
       </c>
       <c r="D10" s="104">
@@ -21387,7 +22315,7 @@
       <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="205"/>
+      <c r="C13" s="204"/>
       <c r="D13" s="74">
         <v>280</v>
       </c>
@@ -21533,7 +22461,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="60"/>
-      <c r="C15" s="207"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="74"/>
       <c r="E15" s="105">
         <v>0</v>
@@ -21807,20 +22735,20 @@
       <c r="K20" s="153"/>
       <c r="L20" s="153"/>
       <c r="M20" s="154"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="212">
+      <c r="N20" s="210"/>
+      <c r="O20" s="210"/>
+      <c r="P20" s="211">
         <f>M17+P19</f>
         <v>13190.32</v>
       </c>
-      <c r="Q20" s="212"/>
+      <c r="Q20" s="211"/>
       <c r="W20" s="10"/>
       <c r="X20" s="155"/>
     </row>
     <row r="21" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="195"/>
       <c r="E21" s="158"/>
       <c r="F21" s="159"/>
       <c r="G21" s="152"/>
@@ -21842,9 +22770,9 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="197"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="199"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="198"/>
       <c r="E22" s="152"/>
       <c r="F22" s="152"/>
       <c r="G22" s="152"/>
@@ -21856,9 +22784,9 @@
       <c r="M22" s="166"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="200"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="201"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="200"/>
       <c r="E23" s="170"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -21868,54 +22796,54 @@
       <c r="L23" s="172"/>
     </row>
     <row r="24" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="200"/>
-      <c r="C24" s="202"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="174"/>
     </row>
     <row r="25" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="200"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="200"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
     </row>
     <row r="28" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
     </row>
     <row r="29" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="200"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="200"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
     </row>
     <row r="31" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="200"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="202"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="200"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="202"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="200"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="202"/>
     </row>
   </sheetData>
   <sortState ref="B9:H15">

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -30,9 +30,10 @@
     <sheet name="SEMANA    16    2022      " sheetId="18" r:id="rId16"/>
     <sheet name="    SEMANA    17    2022    " sheetId="19" r:id="rId17"/>
     <sheet name="   SEMANA   18    2022   " sheetId="20" r:id="rId18"/>
-    <sheet name="Hoja2" sheetId="21" r:id="rId19"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId20"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId21"/>
+    <sheet name="   SEMANA    19    2022    " sheetId="21" r:id="rId19"/>
+    <sheet name="Hoja1" sheetId="22" r:id="rId20"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId21"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="60">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -221,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  18    DEL     02     AL  08       MAYO        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  19    DEL     09     AL  15       MAYO        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1752,6 +1756,9 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11863,13 +11870,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12793,12 +12797,932 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="209" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P13" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="203">
+        <v>44242</v>
+      </c>
+      <c r="D8" s="207">
+        <v>366.67</v>
+      </c>
+      <c r="E8" s="63">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="49">
+        <f>D8*E8-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="53">
+        <f>I8+H8</f>
+        <v>2200</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="205">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="104">
+        <v>300</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9</f>
+        <v>1800</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" ref="M9:M13" si="1">I9+H9+G9-L9</f>
+        <v>1800</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="204"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1960</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f>I10+H10+G10-L10</f>
+        <v>1960</v>
+      </c>
+      <c r="N10" s="108">
+        <v>0</v>
+      </c>
+      <c r="O10" s="109">
+        <v>0</v>
+      </c>
+      <c r="P10" s="98">
+        <f>M10-O10</f>
+        <v>1960</v>
+      </c>
+      <c r="Q10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="111"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="112">
+        <v>3</v>
+      </c>
+      <c r="U10" s="113">
+        <v>1</v>
+      </c>
+      <c r="V10" s="113">
+        <v>1</v>
+      </c>
+      <c r="W10" s="113">
+        <v>2</v>
+      </c>
+      <c r="X10" s="113">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="114"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E11" s="47">
+        <v>6</v>
+      </c>
+      <c r="F11" s="47">
+        <v>3</v>
+      </c>
+      <c r="G11" s="48">
+        <v>1250</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*E11</f>
+        <v>2500.02</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="53">
+        <f>I11+H11+G11-L11-0.02</f>
+        <v>3750</v>
+      </c>
+      <c r="N11" s="108">
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
+        <v>0</v>
+      </c>
+      <c r="P11" s="98">
+        <f>M11-O11</f>
+        <v>3750</v>
+      </c>
+      <c r="Q11" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="111"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="112">
+        <v>5</v>
+      </c>
+      <c r="U11" s="113">
+        <v>5</v>
+      </c>
+      <c r="V11" s="113">
+        <v>1</v>
+      </c>
+      <c r="W11" s="113">
+        <v>1</v>
+      </c>
+      <c r="X11" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="114"/>
+    </row>
+    <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*E12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="53">
+        <f>I12+H12+G12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
+        <v>0</v>
+      </c>
+      <c r="O12" s="109">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f>M12-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="111"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="112">
+        <v>0</v>
+      </c>
+      <c r="U12" s="113">
+        <v>0</v>
+      </c>
+      <c r="V12" s="113">
+        <v>0</v>
+      </c>
+      <c r="W12" s="113">
+        <v>0</v>
+      </c>
+      <c r="X12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="119"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="120">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122">
+        <v>0</v>
+      </c>
+      <c r="M13" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
+        <v>0</v>
+      </c>
+      <c r="O13" s="125">
+        <v>0</v>
+      </c>
+      <c r="P13" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="102"/>
+      <c r="T13" s="126">
+        <f t="shared" ref="T13:AA13" si="2">SUM(T7:T12)</f>
+        <v>14</v>
+      </c>
+      <c r="U13" s="126">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="V13" s="126">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="W13" s="126">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X13" s="126">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="132">
+        <f>SUM(H7:H13)</f>
+        <v>10660.04</v>
+      </c>
+      <c r="I14" s="133">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134">
+        <f>SUM(L7:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="135">
+        <f>SUM(M7:M13)</f>
+        <v>11910</v>
+      </c>
+      <c r="N14" s="136">
+        <f>SUM(N8:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="137">
+        <f>SUM(O8:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="138">
+        <f>SUM(P7:P13)</f>
+        <v>11910</v>
+      </c>
+      <c r="Q14" s="110"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="M15" s="7"/>
+      <c r="P15">
+        <v>1616</v>
+      </c>
+      <c r="Q15" s="142"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="143">
+        <f t="shared" ref="T15:AA15" si="3">T13*T6</f>
+        <v>7000</v>
+      </c>
+      <c r="U15" s="143">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="V15" s="143">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="W15" s="144">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="X15" s="143">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="Y15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="145">
+        <f>SUM(T15:AA15)</f>
+        <v>11910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="P16" s="149"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="211">
+        <f>M14+P16</f>
+        <v>11910</v>
+      </c>
+      <c r="Q17" s="211"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="155"/>
+    </row>
+    <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="199"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="199"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="174"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="199"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="199"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14044,13 +14968,25 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14062,7 +14998,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="212" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="6"/>
@@ -14145,7 +15081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -14153,7 +15089,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F21" sqref="E20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14175,11 +15111,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>5500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -14205,11 +15141,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -14220,11 +15156,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -14290,7 +15226,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>10660</v>
+        <v>11910</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -31,9 +31,10 @@
     <sheet name="    SEMANA    17    2022    " sheetId="19" r:id="rId17"/>
     <sheet name="   SEMANA   18    2022   " sheetId="20" r:id="rId18"/>
     <sheet name="   SEMANA    19    2022    " sheetId="21" r:id="rId19"/>
-    <sheet name="Hoja1" sheetId="22" r:id="rId20"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId21"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId22"/>
+    <sheet name="  SEMANA    20     2022   " sheetId="22" r:id="rId20"/>
+    <sheet name="Hoja2" sheetId="23" r:id="rId21"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId22"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="61">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -225,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  19    DEL     09     AL  15       MAYO        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  20    DEL     16     AL  22       MAYO        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1756,9 +1760,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12797,13 +12798,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14968,6 +14966,936 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="209" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P13" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="203">
+        <v>44242</v>
+      </c>
+      <c r="D8" s="207">
+        <v>366.67</v>
+      </c>
+      <c r="E8" s="63">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="49">
+        <f>D8*E8-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="53">
+        <f>I8+H8</f>
+        <v>2200</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="205">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="104">
+        <v>300</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9</f>
+        <v>1800</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" ref="M9:M13" si="1">I9+H9+G9-L9</f>
+        <v>1800</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="204"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1960</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f>I10+H10+G10-L10</f>
+        <v>1960</v>
+      </c>
+      <c r="N10" s="108">
+        <v>0</v>
+      </c>
+      <c r="O10" s="109">
+        <v>0</v>
+      </c>
+      <c r="P10" s="98">
+        <f>M10-O10</f>
+        <v>1960</v>
+      </c>
+      <c r="Q10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="111"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="112">
+        <v>2</v>
+      </c>
+      <c r="U10" s="113">
+        <v>2</v>
+      </c>
+      <c r="V10" s="113">
+        <v>2</v>
+      </c>
+      <c r="W10" s="113">
+        <v>3</v>
+      </c>
+      <c r="X10" s="113">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="113">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="113">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="114"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E11" s="47">
+        <v>6</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*E11</f>
+        <v>2500.02</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="53">
+        <f>I11+H11+G11-L11-0.02</f>
+        <v>2500</v>
+      </c>
+      <c r="N11" s="108">
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
+        <v>0</v>
+      </c>
+      <c r="P11" s="98">
+        <f>M11-O11</f>
+        <v>2500</v>
+      </c>
+      <c r="Q11" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="111"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="113">
+        <v>5</v>
+      </c>
+      <c r="V11" s="113">
+        <v>4</v>
+      </c>
+      <c r="W11" s="113">
+        <v>0</v>
+      </c>
+      <c r="X11" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="114"/>
+    </row>
+    <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*E12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="53">
+        <f>I12+H12+G12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
+        <v>0</v>
+      </c>
+      <c r="O12" s="109">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f>M12-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="111"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="112">
+        <v>0</v>
+      </c>
+      <c r="U12" s="113">
+        <v>0</v>
+      </c>
+      <c r="V12" s="113">
+        <v>0</v>
+      </c>
+      <c r="W12" s="113">
+        <v>0</v>
+      </c>
+      <c r="X12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="119"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="120">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122">
+        <v>0</v>
+      </c>
+      <c r="M13" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
+        <v>0</v>
+      </c>
+      <c r="O13" s="125">
+        <v>0</v>
+      </c>
+      <c r="P13" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="102"/>
+      <c r="T13" s="126">
+        <f t="shared" ref="T13:AA13" si="2">SUM(T7:T12)</f>
+        <v>8</v>
+      </c>
+      <c r="U13" s="126">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="V13" s="126">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="W13" s="126">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X13" s="126">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Y13" s="126">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Z13" s="126">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AA13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="132">
+        <f>SUM(H7:H13)</f>
+        <v>10660.04</v>
+      </c>
+      <c r="I14" s="133">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134">
+        <f>SUM(L7:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="135">
+        <f>SUM(M7:M13)</f>
+        <v>10660</v>
+      </c>
+      <c r="N14" s="136">
+        <f>SUM(N8:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="137">
+        <f>SUM(O8:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="138">
+        <f>SUM(P7:P13)</f>
+        <v>10660</v>
+      </c>
+      <c r="Q14" s="110"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="M15" s="7"/>
+      <c r="P15">
+        <v>1616</v>
+      </c>
+      <c r="Q15" s="142"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="143">
+        <f t="shared" ref="T15:AA15" si="3">T13*T6</f>
+        <v>4000</v>
+      </c>
+      <c r="U15" s="143">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="V15" s="143">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="W15" s="144">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="X15" s="143">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="Y15" s="143">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Z15" s="143">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="AA15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="145">
+        <f>SUM(T15:AA15)</f>
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="P16" s="149"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="211">
+        <f>M14+P16</f>
+        <v>10660</v>
+      </c>
+      <c r="Q17" s="211"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="155"/>
+    </row>
+    <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="199"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="199"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="174"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="199"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="199"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14978,14 +15906,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -14998,7 +15926,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="188" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="6"/>
@@ -15081,7 +16009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -15089,7 +16017,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="E20:F21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15111,11 +16039,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>7000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -15126,11 +16054,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G12" si="0">F7*D7</f>
-        <v>3800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -15141,11 +16069,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -15171,11 +16099,11 @@
         <v>37</v>
       </c>
       <c r="F10" s="179">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G10" s="180">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -15186,11 +16114,11 @@
         <v>37</v>
       </c>
       <c r="F11" s="179">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -15201,11 +16129,11 @@
         <v>37</v>
       </c>
       <c r="F12" s="179">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12" s="180">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -15226,7 +16154,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>11910</v>
+        <v>10660</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
+++ b/01 DOCUEMENTOS/NOMINA CASA  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="10305" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="SEMANA  01    2022   " sheetId="1" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="   SEMANA   18    2022   " sheetId="20" r:id="rId18"/>
     <sheet name="   SEMANA    19    2022    " sheetId="21" r:id="rId19"/>
     <sheet name="  SEMANA    20     2022   " sheetId="22" r:id="rId20"/>
-    <sheet name="Hoja2" sheetId="23" r:id="rId21"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId22"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId23"/>
+    <sheet name="SEMANA     21     2022   " sheetId="23" r:id="rId21"/>
+    <sheet name="Hoja1" sheetId="24" r:id="rId22"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId23"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="62">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -229,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve">SEMANA #  20    DEL     16     AL  22       MAYO        2 0 2 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMANA #  21    DEL     23     AL  29       MAYO        2 0 2 2 </t>
   </si>
 </sst>
 </file>
@@ -14966,13 +14970,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15896,6 +15897,938 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="209" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+    </row>
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="12"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="28">
+        <v>500</v>
+      </c>
+      <c r="U6" s="29">
+        <v>200</v>
+      </c>
+      <c r="V6" s="29">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29">
+        <v>50</v>
+      </c>
+      <c r="X6" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34">
+        <v>366.67</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <f>D7*E7+F7*D7</f>
+        <v>2200.02</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40">
+        <f>I7+H7+G7-L7-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P13" si="0">M7-O7</f>
+        <v>2200</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="203">
+        <v>44242</v>
+      </c>
+      <c r="D8" s="207">
+        <v>366.67</v>
+      </c>
+      <c r="E8" s="63">
+        <v>6</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="49">
+        <f>D8*E8-0.02</f>
+        <v>2200</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="53">
+        <f>I8+H8</f>
+        <v>2200</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="205">
+        <v>44354</v>
+      </c>
+      <c r="D9" s="104">
+        <v>300</v>
+      </c>
+      <c r="E9" s="47">
+        <v>6</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <f>D9*E9</f>
+        <v>1800</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" ref="M9:M13" si="1">I9+H9+G9-L9</f>
+        <v>1800</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="204"/>
+      <c r="D10" s="74">
+        <v>280</v>
+      </c>
+      <c r="E10" s="47">
+        <v>5</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1680</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <f>I10+H10+G10-L10</f>
+        <v>1680</v>
+      </c>
+      <c r="N10" s="108">
+        <v>0</v>
+      </c>
+      <c r="O10" s="109">
+        <v>0</v>
+      </c>
+      <c r="P10" s="98">
+        <f>M10-O10</f>
+        <v>1680</v>
+      </c>
+      <c r="Q10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="111"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="112">
+        <v>2</v>
+      </c>
+      <c r="U10" s="113">
+        <v>1</v>
+      </c>
+      <c r="V10" s="113">
+        <v>1</v>
+      </c>
+      <c r="W10" s="113">
+        <v>4</v>
+      </c>
+      <c r="X10" s="113">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="113">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="114"/>
+    </row>
+    <row r="11" spans="1:28" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="103">
+        <v>44354</v>
+      </c>
+      <c r="D11" s="104">
+        <v>416.67</v>
+      </c>
+      <c r="E11" s="47">
+        <v>6</v>
+      </c>
+      <c r="F11" s="47">
+        <v>3</v>
+      </c>
+      <c r="G11" s="48">
+        <v>1250</v>
+      </c>
+      <c r="H11" s="49">
+        <f>D11*E11</f>
+        <v>2500.02</v>
+      </c>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="53">
+        <f>I11+H11+G11-L11-0.02</f>
+        <v>3750</v>
+      </c>
+      <c r="N11" s="108">
+        <v>0</v>
+      </c>
+      <c r="O11" s="109">
+        <v>0</v>
+      </c>
+      <c r="P11" s="98">
+        <f>M11-O11</f>
+        <v>3750</v>
+      </c>
+      <c r="Q11" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="111"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="112">
+        <v>5</v>
+      </c>
+      <c r="U11" s="113">
+        <v>4</v>
+      </c>
+      <c r="V11" s="113">
+        <v>1</v>
+      </c>
+      <c r="W11" s="113">
+        <v>5</v>
+      </c>
+      <c r="X11" s="113">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="114"/>
+    </row>
+    <row r="12" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>D12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <f>D12*E12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="53">
+        <f>I12+H12+G12-L12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
+        <v>0</v>
+      </c>
+      <c r="O12" s="109">
+        <v>0</v>
+      </c>
+      <c r="P12" s="98">
+        <f>M12-O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="111"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="112">
+        <v>0</v>
+      </c>
+      <c r="U12" s="113">
+        <v>0</v>
+      </c>
+      <c r="V12" s="113">
+        <v>0</v>
+      </c>
+      <c r="W12" s="113">
+        <v>0</v>
+      </c>
+      <c r="X12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="119"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="120">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="122">
+        <v>0</v>
+      </c>
+      <c r="M13" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
+        <v>0</v>
+      </c>
+      <c r="O13" s="125">
+        <v>0</v>
+      </c>
+      <c r="P13" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="102"/>
+      <c r="T13" s="126">
+        <f t="shared" ref="T13:AA13" si="2">SUM(T7:T12)</f>
+        <v>13</v>
+      </c>
+      <c r="U13" s="126">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="V13" s="126">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="W13" s="126">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X13" s="126">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Y13" s="126">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Z13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="132">
+        <f>SUM(H7:H13)</f>
+        <v>10380.040000000001</v>
+      </c>
+      <c r="I14" s="133">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134">
+        <f>SUM(L7:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="135">
+        <f>SUM(M7:M13)</f>
+        <v>11630</v>
+      </c>
+      <c r="N14" s="136">
+        <f>SUM(N8:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="137">
+        <f>SUM(O8:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="138">
+        <f>SUM(P7:P13)</f>
+        <v>11630</v>
+      </c>
+      <c r="Q14" s="110"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="139"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="M15" s="7"/>
+      <c r="P15">
+        <v>1616</v>
+      </c>
+      <c r="Q15" s="142"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="143">
+        <f t="shared" ref="T15:AA15" si="3">T13*T6</f>
+        <v>6500</v>
+      </c>
+      <c r="U15" s="143">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="V15" s="143">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="W15" s="144">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="X15" s="143">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="Y15" s="143">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Z15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="145">
+        <f>SUM(T15:AA15)</f>
+        <v>11630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="P16" s="149"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="211">
+        <f>M14+P16</f>
+        <v>11630</v>
+      </c>
+      <c r="Q17" s="211"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="155"/>
+    </row>
+    <row r="18" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="W18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="166"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="199"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="199"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="174"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="199"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="199"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="199"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="199"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="199"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="199"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="199"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="199"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15906,7 +16839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -15914,7 +16847,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16009,7 +16942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -16017,7 +16950,7 @@
   <dimension ref="D5:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16039,11 +16972,11 @@
         <v>37</v>
       </c>
       <c r="F6" s="179">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="180">
         <f>F6*D6</f>
-        <v>5000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -16054,11 +16987,11 @@
         <v>37</v>
       </c>
       <c r="F7" s="179">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="180">
         <f t="shared" ref="G7:G12" si="0">F7*D7</f>
-        <v>4000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -16069,11 +17002,11 @@
         <v>37</v>
       </c>
       <c r="F8" s="179">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="180">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -16084,11 +17017,11 @@
         <v>37</v>
       </c>
       <c r="F9" s="179">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G9" s="180">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -16129,11 +17062,11 @@
         <v>37</v>
       </c>
       <c r="F12" s="179">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12" s="180">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="4:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -16144,7 +17077,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="180">
         <v>0</v>
@@ -16154,7 +17087,7 @@
       <c r="D14" s="181"/>
       <c r="G14" s="182">
         <f>SUM(G6:G13)</f>
-        <v>10660</v>
+        <v>11630</v>
       </c>
     </row>
     <row r="15" spans="4:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
